--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_ynyn_gen_pf_sc_results_0_bus_ward471419_impedance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_ynyn_gen_pf_sc_results_0_bus_ward471419_impedance.xlsx
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833884</v>
+        <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-8.693607481936279E-11</v>
+        <v>-8.693973673417934E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1201,16 +1201,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279474464775</v>
+        <v>0.9526279474464778</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279821172767</v>
+        <v>0.9526279821172772</v>
       </c>
       <c r="Q3">
-        <v>8.709499246996188E-08</v>
+        <v>8.709505176128379E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279330777265</v>
+        <v>0.952627933077727</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279964860256</v>
+        <v>0.9526279964860261</v>
       </c>
       <c r="Q4">
-        <v>5.191990347282305E-07</v>
+        <v>5.191990758230808E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1319,16 +1319,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279361027247</v>
+        <v>0.9526279361027256</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279934610262</v>
+        <v>0.9526279934610259</v>
       </c>
       <c r="Q5">
-        <v>4.282295832224248E-07</v>
+        <v>4.282297246413918E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279315652239</v>
+        <v>0.9526279315652249</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279979985258</v>
+        <v>0.9526279979985255</v>
       </c>
       <c r="Q6">
-        <v>5.646834142251723E-07</v>
+        <v>5.646835967390798E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1437,16 +1437,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.952627927783973</v>
+        <v>0.952627927783974</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280017797757</v>
+        <v>0.9526280017797749</v>
       </c>
       <c r="Q7">
-        <v>6.783949511990454E-07</v>
+        <v>6.783951504294418E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279270277226</v>
+        <v>0.9526279270277238</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280025360256</v>
+        <v>0.9526280025360249</v>
       </c>
       <c r="Q8">
-        <v>7.011372570601203E-07</v>
+        <v>7.01137459302912E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1555,16 +1555,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279255152225</v>
+        <v>0.9526279255152235</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280040485255</v>
+        <v>0.9526280040485249</v>
       </c>
       <c r="Q9">
-        <v>7.466218781298922E-07</v>
+        <v>7.466220773601395E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1614,16 +1614,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279240027221</v>
+        <v>0.9526279240027233</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280055610256</v>
+        <v>0.9526280055610248</v>
       </c>
       <c r="Q10">
-        <v>7.921064882606811E-07</v>
+        <v>7.921066913460564E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1673,16 +1673,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279232464722</v>
+        <v>0.9526279232464732</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280063172756</v>
+        <v>0.952628006317275</v>
       </c>
       <c r="Q11">
-        <v>8.148487927627507E-07</v>
+        <v>8.148489958480961E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1732,16 +1732,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279451777269</v>
+        <v>0.9526279451777273</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279843860269</v>
+        <v>0.9526279843860274</v>
       </c>
       <c r="Q12">
-        <v>1.55321914501209E-07</v>
+        <v>1.55321957592402E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1791,22 +1791,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.952627945177727</v>
+        <v>0.9526279451777273</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279843860266</v>
+        <v>0.9526279843860271</v>
       </c>
       <c r="Q13">
-        <v>1.55321866260643E-07</v>
+        <v>1.55321955188355E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.9999998446691</v>
+        <v>179.9999998446692</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.952627942908977</v>
+        <v>0.9526279429089776</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279866547763</v>
+        <v>0.9526279866547767</v>
       </c>
       <c r="Q14">
-        <v>2.235488939441625E-07</v>
+        <v>2.235489582343589E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1909,16 +1909,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.952627941396476</v>
+        <v>0.9526279413964766</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9526279881672765</v>
+        <v>0.9526279881672766</v>
       </c>
       <c r="Q15">
-        <v>2.69033438867816E-07</v>
+        <v>2.690335438021857E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.952627945933977</v>
+        <v>0.9526279459339776</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279836297769</v>
+        <v>0.9526279836297773</v>
       </c>
       <c r="Q16">
-        <v>1.325796071910614E-07</v>
+        <v>1.325796541375023E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2027,22 +2027,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9526279459339771</v>
+        <v>0.9526279459339776</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279836297766</v>
+        <v>0.9526279836297772</v>
       </c>
       <c r="Q17">
-        <v>1.325795819212128E-07</v>
+        <v>1.325796553962073E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>179.9999998674114</v>
+        <v>179.9999998674115</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279391277268</v>
+        <v>0.9526279391277273</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279904360259</v>
+        <v>0.9526279904360264</v>
       </c>
       <c r="Q18">
-        <v>3.37260491280485E-07</v>
+        <v>3.372605536177909E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2145,16 +2145,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279361027264</v>
+        <v>0.9526279361027272</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279934610256</v>
+        <v>0.9526279934610262</v>
       </c>
       <c r="Q19">
-        <v>4.282297738859931E-07</v>
+        <v>4.282298234521005E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2204,16 +2204,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279338339765</v>
+        <v>0.9526279338339771</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279957297755</v>
+        <v>0.9526279957297761</v>
       </c>
       <c r="Q20">
-        <v>4.964567247556775E-07</v>
+        <v>4.964567724341337E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2263,16 +2263,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279330777265</v>
+        <v>0.952627933077727</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279964860256</v>
+        <v>0.9526279964860261</v>
       </c>
       <c r="Q21">
-        <v>5.191990385834482E-07</v>
+        <v>5.191990785514389E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>8.768652669144455</v>
       </c>
       <c r="H2">
-        <v>0.01094228568963189</v>
+        <v>0.01094228568963188</v>
       </c>
       <c r="I2">
         <v>0.1094383946554753</v>
@@ -2462,7 +2462,7 @@
         <v>1.084507397579257</v>
       </c>
       <c r="Q3">
-        <v>29.14059841519043</v>
+        <v>29.14059841519042</v>
       </c>
       <c r="R3">
         <v>-91.10214742097257</v>
@@ -2521,7 +2521,7 @@
         <v>1.084507397945887</v>
       </c>
       <c r="Q4">
-        <v>29.14059842282393</v>
+        <v>29.14059842282392</v>
       </c>
       <c r="R4">
         <v>-91.10214737018323</v>
@@ -2639,10 +2639,10 @@
         <v>1.08450739798448</v>
       </c>
       <c r="Q6">
-        <v>29.14059842362746</v>
+        <v>29.14059842362745</v>
       </c>
       <c r="R6">
-        <v>-91.10214736483698</v>
+        <v>-91.10214736483699</v>
       </c>
       <c r="S6">
         <v>150.3279626332291</v>
@@ -2701,7 +2701,7 @@
         <v>29.14059842563627</v>
       </c>
       <c r="R7">
-        <v>-91.10214735147136</v>
+        <v>-91.10214735147137</v>
       </c>
       <c r="S7">
         <v>150.3279626377062</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.10250319873549</v>
+        <v>1.102503198735491</v>
       </c>
       <c r="O10">
         <v>1.07393623763207</v>
@@ -2928,7 +2928,7 @@
         <v>1.102503198710999</v>
       </c>
       <c r="O11">
-        <v>1.073936237620756</v>
+        <v>1.073936237620757</v>
       </c>
       <c r="P11">
         <v>1.084507398196739</v>
@@ -2937,7 +2937,7 @@
         <v>29.14059842804684</v>
       </c>
       <c r="R11">
-        <v>-91.10214733543262</v>
+        <v>-91.10214733543263</v>
       </c>
       <c r="S11">
         <v>150.3279626430788</v>
@@ -2996,7 +2996,7 @@
         <v>29.14059841639571</v>
       </c>
       <c r="R12">
-        <v>-91.10214741295322</v>
+        <v>-91.1021474129532</v>
       </c>
       <c r="S12">
         <v>150.3279626171115</v>
@@ -3055,7 +3055,7 @@
         <v>29.14059841639571</v>
       </c>
       <c r="R13">
-        <v>-91.10214741295322</v>
+        <v>-91.1021474129532</v>
       </c>
       <c r="S13">
         <v>150.3279626171115</v>
@@ -3111,7 +3111,7 @@
         <v>1.084507397695035</v>
       </c>
       <c r="Q14">
-        <v>29.14059841760101</v>
+        <v>29.140598417601</v>
       </c>
       <c r="R14">
         <v>-91.10214740493385</v>
@@ -3524,7 +3524,7 @@
         <v>1.084507397945887</v>
       </c>
       <c r="Q21">
-        <v>29.14059842282393</v>
+        <v>29.14059842282392</v>
       </c>
       <c r="R21">
         <v>-91.10214737018323</v>
@@ -3835,7 +3835,7 @@
         <v>29.14059842112402</v>
       </c>
       <c r="R5">
-        <v>-91.10214737876403</v>
+        <v>-91.10214737876404</v>
       </c>
       <c r="S5">
         <v>150.3279626289879</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.102503198809507</v>
+        <v>1.102503198809508</v>
       </c>
       <c r="O8">
         <v>1.073936237650113</v>
@@ -4012,7 +4012,7 @@
         <v>29.14059842594517</v>
       </c>
       <c r="R8">
-        <v>-91.10214734668655</v>
+        <v>-91.10214734668656</v>
       </c>
       <c r="S8">
         <v>150.327962639733</v>
@@ -4062,7 +4062,7 @@
         <v>1.102503198760524</v>
       </c>
       <c r="O9">
-        <v>1.073936237627485</v>
+        <v>1.073936237627486</v>
       </c>
       <c r="P9">
         <v>1.084507398149724</v>
@@ -4071,7 +4071,7 @@
         <v>29.1405984267487</v>
       </c>
       <c r="R9">
-        <v>-91.1021473413403</v>
+        <v>-91.10214734134031</v>
       </c>
       <c r="S9">
         <v>150.3279626415238</v>
@@ -4481,10 +4481,10 @@
         <v>1.084507397628723</v>
       </c>
       <c r="Q16">
-        <v>29.14059841590111</v>
+        <v>29.1405984159011</v>
       </c>
       <c r="R16">
-        <v>-91.10214741351463</v>
+        <v>-91.10214741351464</v>
       </c>
       <c r="S16">
         <v>150.3279626173473</v>
@@ -4540,10 +4540,10 @@
         <v>1.084507397628723</v>
       </c>
       <c r="Q17">
-        <v>29.14059841590111</v>
+        <v>29.1405984159011</v>
       </c>
       <c r="R17">
-        <v>-91.10214741351463</v>
+        <v>-91.10214741351464</v>
       </c>
       <c r="S17">
         <v>150.3279626173473</v>
@@ -4599,7 +4599,7 @@
         <v>1.08450739780239</v>
       </c>
       <c r="Q18">
-        <v>29.14059841951697</v>
+        <v>29.14059841951698</v>
       </c>
       <c r="R18">
         <v>-91.10214738945653</v>
@@ -4865,25 +4865,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.00000140211802</v>
+        <v>40.000001402118</v>
       </c>
       <c r="D2">
-        <v>40.00000140211802</v>
+        <v>40.000001402118</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709825</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="G2">
-        <v>230.9401157709825</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="H2">
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -4892,10 +4892,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>0.8660254037845055</v>
@@ -4907,7 +4907,7 @@
         <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720094406120944E-10</v>
+        <v>1.720008312544437E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -4957,16 +4957,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640282</v>
+        <v>0.8660253881640286</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054648</v>
+        <v>0.8660254194054645</v>
       </c>
       <c r="Q3">
-        <v>8.659293913594348E-08</v>
+        <v>8.659288883979726E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -5016,22 +5016,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015304</v>
+        <v>0.8660253751015301</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679617</v>
+        <v>0.8660254324679613</v>
       </c>
       <c r="Q4">
-        <v>9.162327201680452E-07</v>
+        <v>9.16232749940967E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5075,22 +5075,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515307</v>
+        <v>0.8660253778515302</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179628</v>
+        <v>0.8660254297179623</v>
       </c>
       <c r="Q5">
-        <v>7.415718312251134E-07</v>
+        <v>7.415717246453758E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584198</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5134,22 +5134,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265317</v>
+        <v>0.8660253737265309</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429618</v>
+        <v>0.866025433842961</v>
       </c>
       <c r="Q6">
-        <v>1.003563397001439E-06</v>
+        <v>1.003563246877407E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999989964283</v>
+        <v>179.9999989964282</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -5193,22 +5193,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890329</v>
+        <v>0.8660253702890314</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804611</v>
+        <v>0.8660254372804601</v>
       </c>
       <c r="Q7">
-        <v>1.221889697911259E-06</v>
+        <v>1.221889526145271E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781021</v>
+        <v>179.999998778102</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -5252,22 +5252,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015331</v>
+        <v>0.8660253696015315</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679611</v>
+        <v>0.8660254379679599</v>
       </c>
       <c r="Q8">
-        <v>1.265554953710821E-06</v>
+        <v>1.265554769540734E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999987344369</v>
+        <v>179.9999987344367</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -5311,22 +5311,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265332</v>
+        <v>0.8660253682265319</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429609</v>
+        <v>0.8660254393429597</v>
       </c>
       <c r="Q9">
-        <v>1.352885475375469E-06</v>
+        <v>1.352885303609337E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999986471064</v>
+        <v>179.9999986471062</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -5370,22 +5370,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515335</v>
+        <v>0.8660253668515322</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179605</v>
+        <v>0.8660254407179596</v>
       </c>
       <c r="Q10">
-        <v>1.440215999099244E-06</v>
+        <v>1.440215827333026E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999985597759</v>
+        <v>179.9999985597757</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -5429,22 +5429,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640337</v>
+        <v>0.8660253661640324</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054604</v>
+        <v>0.8660254414054595</v>
       </c>
       <c r="Q11">
-        <v>1.483881255568643E-06</v>
+        <v>1.483881075320917E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161107</v>
+        <v>179.9999985161105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -5488,16 +5488,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015286</v>
+        <v>0.8660253861015287</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679646</v>
+        <v>0.8660254214679642</v>
       </c>
       <c r="Q12">
-        <v>2.175887004705142E-07</v>
+        <v>2.175886509683066E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -5547,16 +5547,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015286</v>
+        <v>0.8660253861015289</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679644</v>
+        <v>0.8660254214679641</v>
       </c>
       <c r="Q13">
-        <v>2.175886925145264E-07</v>
+        <v>2.17588635119932E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -5612,16 +5612,16 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304639</v>
+        <v>0.8660254235304636</v>
       </c>
       <c r="Q14">
-        <v>3.485844602277924E-07</v>
+        <v>3.485844217321606E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999996514069</v>
+        <v>179.999999651407</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -5665,16 +5665,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640294</v>
+        <v>0.8660253826640293</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054637</v>
+        <v>0.8660254249054632</v>
       </c>
       <c r="Q15">
-        <v>4.35915007230062E-07</v>
+        <v>4.359149339413404E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -5724,16 +5724,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890285</v>
+        <v>0.8660253867890286</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804646</v>
+        <v>0.8660254207804644</v>
       </c>
       <c r="Q16">
-        <v>1.739234460116232E-07</v>
+        <v>1.739233965094446E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5783,16 +5783,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890285</v>
+        <v>0.8660253867890289</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.8660254207804643</v>
       </c>
       <c r="Q17">
-        <v>1.739234363282679E-07</v>
+        <v>1.739233807884904E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -5848,10 +5848,10 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.866025426967963</v>
+        <v>0.8660254269679627</v>
       </c>
       <c r="Q18">
-        <v>5.669107169198445E-07</v>
+        <v>5.669107091182488E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -5901,16 +5901,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515298</v>
+        <v>0.8660253778515297</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8660254297179626</v>
+        <v>0.8660254297179621</v>
       </c>
       <c r="Q19">
-        <v>7.415717199790276E-07</v>
+        <v>7.415717339696803E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -5960,16 +5960,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8660253757890303</v>
+        <v>0.86602537578903</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804617</v>
+        <v>0.8660254317804614</v>
       </c>
       <c r="Q20">
-        <v>8.725674687538727E-07</v>
+        <v>8.72567490244241E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -6019,22 +6019,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015304</v>
+        <v>0.8660253751015302</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679617</v>
+        <v>0.8660254324679613</v>
       </c>
       <c r="Q21">
-        <v>9.162327201680452E-07</v>
+        <v>9.162327331769053E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
   </sheetData>
@@ -6117,25 +6117,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.00000140211802</v>
+        <v>40.000001402118</v>
       </c>
       <c r="D2">
-        <v>40.00000140211802</v>
+        <v>40.000001402118</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709825</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="G2">
-        <v>230.9401157709825</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="H2">
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -6144,10 +6144,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>0.8660254037845055</v>
@@ -6159,7 +6159,7 @@
         <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720094406120944E-10</v>
+        <v>1.720008312544437E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -6209,16 +6209,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640282</v>
+        <v>0.8660253881640286</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054648</v>
+        <v>0.8660254194054645</v>
       </c>
       <c r="Q3">
-        <v>8.659293913594348E-08</v>
+        <v>8.659288883979726E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -6268,22 +6268,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015304</v>
+        <v>0.8660253751015301</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679617</v>
+        <v>0.8660254324679613</v>
       </c>
       <c r="Q4">
-        <v>9.162327201680452E-07</v>
+        <v>9.16232749940967E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6327,22 +6327,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515307</v>
+        <v>0.8660253778515302</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179628</v>
+        <v>0.8660254297179623</v>
       </c>
       <c r="Q5">
-        <v>7.415718312251134E-07</v>
+        <v>7.415717246453758E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584198</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6386,22 +6386,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265317</v>
+        <v>0.8660253737265309</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429618</v>
+        <v>0.866025433842961</v>
       </c>
       <c r="Q6">
-        <v>1.003563397001439E-06</v>
+        <v>1.003563246877407E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999989964283</v>
+        <v>179.9999989964282</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -6445,22 +6445,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890329</v>
+        <v>0.8660253702890314</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804611</v>
+        <v>0.8660254372804601</v>
       </c>
       <c r="Q7">
-        <v>1.221889697911259E-06</v>
+        <v>1.221889526145271E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781021</v>
+        <v>179.999998778102</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -6504,22 +6504,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015331</v>
+        <v>0.8660253696015315</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679611</v>
+        <v>0.8660254379679599</v>
       </c>
       <c r="Q8">
-        <v>1.265554953710821E-06</v>
+        <v>1.265554769540734E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999987344369</v>
+        <v>179.9999987344367</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6563,22 +6563,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265332</v>
+        <v>0.8660253682265319</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429609</v>
+        <v>0.8660254393429597</v>
       </c>
       <c r="Q9">
-        <v>1.352885475375469E-06</v>
+        <v>1.352885303609337E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999986471064</v>
+        <v>179.9999986471062</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6622,22 +6622,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515335</v>
+        <v>0.8660253668515322</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179605</v>
+        <v>0.8660254407179596</v>
       </c>
       <c r="Q10">
-        <v>1.440215999099244E-06</v>
+        <v>1.440215827333026E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999985597759</v>
+        <v>179.9999985597757</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6681,22 +6681,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640337</v>
+        <v>0.8660253661640324</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054604</v>
+        <v>0.8660254414054595</v>
       </c>
       <c r="Q11">
-        <v>1.483881255568643E-06</v>
+        <v>1.483881075320917E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161107</v>
+        <v>179.9999985161105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6740,16 +6740,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015286</v>
+        <v>0.8660253861015287</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679646</v>
+        <v>0.8660254214679642</v>
       </c>
       <c r="Q12">
-        <v>2.175887004705142E-07</v>
+        <v>2.175886509683066E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -6799,16 +6799,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015286</v>
+        <v>0.8660253861015289</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679644</v>
+        <v>0.8660254214679641</v>
       </c>
       <c r="Q13">
-        <v>2.175886925145264E-07</v>
+        <v>2.17588635119932E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -6864,16 +6864,16 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304639</v>
+        <v>0.8660254235304636</v>
       </c>
       <c r="Q14">
-        <v>3.485844602277924E-07</v>
+        <v>3.485844217321606E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999996514069</v>
+        <v>179.999999651407</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6917,16 +6917,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640294</v>
+        <v>0.8660253826640293</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054637</v>
+        <v>0.8660254249054632</v>
       </c>
       <c r="Q15">
-        <v>4.35915007230062E-07</v>
+        <v>4.359149339413404E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -6976,16 +6976,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890285</v>
+        <v>0.8660253867890286</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804646</v>
+        <v>0.8660254207804644</v>
       </c>
       <c r="Q16">
-        <v>1.739234460116232E-07</v>
+        <v>1.739233965094446E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -7035,16 +7035,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890285</v>
+        <v>0.8660253867890289</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.8660254207804643</v>
       </c>
       <c r="Q17">
-        <v>1.739234363282679E-07</v>
+        <v>1.739233807884904E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -7100,10 +7100,10 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.866025426967963</v>
+        <v>0.8660254269679627</v>
       </c>
       <c r="Q18">
-        <v>5.669107169198445E-07</v>
+        <v>5.669107091182488E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -7153,16 +7153,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515298</v>
+        <v>0.8660253778515297</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8660254297179626</v>
+        <v>0.8660254297179621</v>
       </c>
       <c r="Q19">
-        <v>7.415717199790276E-07</v>
+        <v>7.415717339696803E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -7212,16 +7212,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8660253757890303</v>
+        <v>0.86602537578903</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804617</v>
+        <v>0.8660254317804614</v>
       </c>
       <c r="Q20">
-        <v>8.725674687538727E-07</v>
+        <v>8.72567490244241E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -7271,22 +7271,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015304</v>
+        <v>0.8660253751015302</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679617</v>
+        <v>0.8660254324679613</v>
       </c>
       <c r="Q21">
-        <v>9.162327201680452E-07</v>
+        <v>9.162327331769053E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +7387,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -7396,10 +7396,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>1.002551066141495</v>
@@ -7467,7 +7467,7 @@
         <v>0.9731342571702207</v>
       </c>
       <c r="P3">
-        <v>0.9840663098081651</v>
+        <v>0.9840663098081652</v>
       </c>
       <c r="Q3">
         <v>29.02648251593023</v>
@@ -7526,7 +7526,7 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P4">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q4">
         <v>29.02648253625838</v>
@@ -7582,10 +7582,10 @@
         <v>1.002551065199868</v>
       </c>
       <c r="O5">
-        <v>0.9731342572481088</v>
+        <v>0.9731342572481086</v>
       </c>
       <c r="P5">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q5">
         <v>29.02648253197877</v>
@@ -7641,13 +7641,13 @@
         <v>1.002551065038351</v>
       </c>
       <c r="O6">
-        <v>0.9731342572792639</v>
+        <v>0.9731342572792638</v>
       </c>
       <c r="P6">
         <v>0.9840663104380105</v>
       </c>
       <c r="Q6">
-        <v>29.02648253839819</v>
+        <v>29.02648253839818</v>
       </c>
       <c r="R6">
         <v>-91.24839357891874</v>
@@ -7706,7 +7706,7 @@
         <v>0.9840663105879737</v>
       </c>
       <c r="Q7">
-        <v>29.02648254374771</v>
+        <v>29.0264825437477</v>
       </c>
       <c r="R7">
         <v>-91.24839355967381</v>
@@ -7818,10 +7818,10 @@
         <v>1.002551064822994</v>
       </c>
       <c r="O9">
-        <v>0.9731342573208043</v>
+        <v>0.9731342573208042</v>
       </c>
       <c r="P9">
-        <v>0.9840663106779517</v>
+        <v>0.9840663106779516</v>
       </c>
       <c r="Q9">
         <v>29.02648254695741</v>
@@ -7883,7 +7883,7 @@
         <v>0.9840663107379369</v>
       </c>
       <c r="Q10">
-        <v>29.02648254909722</v>
+        <v>29.02648254909721</v>
       </c>
       <c r="R10">
         <v>-91.24839354042889</v>
@@ -7942,7 +7942,7 @@
         <v>0.9840663107679295</v>
       </c>
       <c r="Q11">
-        <v>29.02648255016712</v>
+        <v>29.02648255016713</v>
       </c>
       <c r="R11">
         <v>-91.24839353657991</v>
@@ -7995,16 +7995,16 @@
         <v>1.002551065522903</v>
       </c>
       <c r="O12">
-        <v>0.9731342571857984</v>
+        <v>0.9731342571857983</v>
       </c>
       <c r="P12">
         <v>0.9840663098981429</v>
       </c>
       <c r="Q12">
-        <v>29.02648251913994</v>
+        <v>29.02648251913993</v>
       </c>
       <c r="R12">
-        <v>-91.24839364820045</v>
+        <v>-91.24839364820043</v>
       </c>
       <c r="S12">
         <v>150.3745452886059</v>
@@ -8054,16 +8054,16 @@
         <v>1.002551065522903</v>
       </c>
       <c r="O13">
-        <v>0.9731342571857984</v>
+        <v>0.9731342571857983</v>
       </c>
       <c r="P13">
         <v>0.9840663098981429</v>
       </c>
       <c r="Q13">
-        <v>29.02648251913994</v>
+        <v>29.02648251913993</v>
       </c>
       <c r="R13">
-        <v>-91.24839364820045</v>
+        <v>-91.24839364820043</v>
       </c>
       <c r="S13">
         <v>150.3745452886059</v>
@@ -8113,7 +8113,7 @@
         <v>1.002551065442144</v>
       </c>
       <c r="O14">
-        <v>0.9731342572013758</v>
+        <v>0.9731342572013759</v>
       </c>
       <c r="P14">
         <v>0.9840663099881208</v>
@@ -8178,7 +8178,7 @@
         <v>0.9840663100481062</v>
       </c>
       <c r="Q15">
-        <v>29.02648252448946</v>
+        <v>29.02648252448945</v>
       </c>
       <c r="R15">
         <v>-91.24839362895553</v>
@@ -8414,7 +8414,7 @@
         <v>0.9840663102580548</v>
       </c>
       <c r="Q19">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R19">
         <v>-91.24839360201264</v>
@@ -8467,7 +8467,7 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636863</v>
       </c>
       <c r="P20">
         <v>0.9840663103480326</v>
@@ -8529,7 +8529,7 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P21">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q21">
         <v>29.02648253625838</v>
@@ -8639,7 +8639,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -8648,10 +8648,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>1.002551066141495</v>
@@ -8719,7 +8719,7 @@
         <v>0.9731342571702207</v>
       </c>
       <c r="P3">
-        <v>0.9840663098081651</v>
+        <v>0.9840663098081652</v>
       </c>
       <c r="Q3">
         <v>29.02648251593023</v>
@@ -8778,7 +8778,7 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P4">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q4">
         <v>29.02648253625838</v>
@@ -8834,10 +8834,10 @@
         <v>1.002551065199868</v>
       </c>
       <c r="O5">
-        <v>0.9731342572481088</v>
+        <v>0.9731342572481086</v>
       </c>
       <c r="P5">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q5">
         <v>29.02648253197877</v>
@@ -8893,13 +8893,13 @@
         <v>1.002551065038351</v>
       </c>
       <c r="O6">
-        <v>0.9731342572792639</v>
+        <v>0.9731342572792638</v>
       </c>
       <c r="P6">
         <v>0.9840663104380105</v>
       </c>
       <c r="Q6">
-        <v>29.02648253839819</v>
+        <v>29.02648253839818</v>
       </c>
       <c r="R6">
         <v>-91.24839357891874</v>
@@ -8958,7 +8958,7 @@
         <v>0.9840663105879737</v>
       </c>
       <c r="Q7">
-        <v>29.02648254374771</v>
+        <v>29.0264825437477</v>
       </c>
       <c r="R7">
         <v>-91.24839355967381</v>
@@ -9070,10 +9070,10 @@
         <v>1.002551064822994</v>
       </c>
       <c r="O9">
-        <v>0.9731342573208043</v>
+        <v>0.9731342573208042</v>
       </c>
       <c r="P9">
-        <v>0.9840663106779517</v>
+        <v>0.9840663106779516</v>
       </c>
       <c r="Q9">
         <v>29.02648254695741</v>
@@ -9135,7 +9135,7 @@
         <v>0.9840663107379369</v>
       </c>
       <c r="Q10">
-        <v>29.02648254909722</v>
+        <v>29.02648254909721</v>
       </c>
       <c r="R10">
         <v>-91.24839354042889</v>
@@ -9194,7 +9194,7 @@
         <v>0.9840663107679295</v>
       </c>
       <c r="Q11">
-        <v>29.02648255016712</v>
+        <v>29.02648255016713</v>
       </c>
       <c r="R11">
         <v>-91.24839353657991</v>
@@ -9247,16 +9247,16 @@
         <v>1.002551065522903</v>
       </c>
       <c r="O12">
-        <v>0.9731342571857984</v>
+        <v>0.9731342571857983</v>
       </c>
       <c r="P12">
         <v>0.9840663098981429</v>
       </c>
       <c r="Q12">
-        <v>29.02648251913994</v>
+        <v>29.02648251913993</v>
       </c>
       <c r="R12">
-        <v>-91.24839364820045</v>
+        <v>-91.24839364820043</v>
       </c>
       <c r="S12">
         <v>150.3745452886059</v>
@@ -9306,16 +9306,16 @@
         <v>1.002551065522903</v>
       </c>
       <c r="O13">
-        <v>0.9731342571857984</v>
+        <v>0.9731342571857983</v>
       </c>
       <c r="P13">
         <v>0.9840663098981429</v>
       </c>
       <c r="Q13">
-        <v>29.02648251913994</v>
+        <v>29.02648251913993</v>
       </c>
       <c r="R13">
-        <v>-91.24839364820045</v>
+        <v>-91.24839364820043</v>
       </c>
       <c r="S13">
         <v>150.3745452886059</v>
@@ -9365,7 +9365,7 @@
         <v>1.002551065442144</v>
       </c>
       <c r="O14">
-        <v>0.9731342572013758</v>
+        <v>0.9731342572013759</v>
       </c>
       <c r="P14">
         <v>0.9840663099881208</v>
@@ -9430,7 +9430,7 @@
         <v>0.9840663100481062</v>
       </c>
       <c r="Q15">
-        <v>29.02648252448946</v>
+        <v>29.02648252448945</v>
       </c>
       <c r="R15">
         <v>-91.24839362895553</v>
@@ -9666,7 +9666,7 @@
         <v>0.9840663102580548</v>
       </c>
       <c r="Q19">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R19">
         <v>-91.24839360201264</v>
@@ -9719,7 +9719,7 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636863</v>
       </c>
       <c r="P20">
         <v>0.9840663103480326</v>
@@ -9781,7 +9781,7 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P21">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q21">
         <v>29.02648253625838</v>
@@ -9903,13 +9903,13 @@
         <v>0.1094540870674546</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646507</v>
+        <v>0.01094540889646508</v>
       </c>
       <c r="M2">
         <v>0.1094540870674483</v>
       </c>
       <c r="N2">
-        <v>0.6350725630152825</v>
+        <v>0.6350725630152823</v>
       </c>
       <c r="O2">
         <v>1.100000023884843</v>
@@ -9918,7 +9918,7 @@
         <v>0.6350674081887472</v>
       </c>
       <c r="Q2">
-        <v>60.0025289775436</v>
+        <v>60.00252897754361</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
@@ -9971,22 +9971,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350725803613437</v>
+        <v>0.6350725803613428</v>
       </c>
       <c r="O3">
         <v>1.100000023884846</v>
       </c>
       <c r="P3">
-        <v>0.6350673924404842</v>
+        <v>0.6350673924404838</v>
       </c>
       <c r="Q3">
-        <v>60.00252971452033</v>
+        <v>60.00252971452038</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S3">
-        <v>119.9977404895151</v>
+        <v>119.997740489515</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -10033,22 +10033,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350725988789422</v>
+        <v>0.6350725988789413</v>
       </c>
       <c r="O4">
         <v>1.100000023884847</v>
       </c>
       <c r="P4">
-        <v>0.6350673822186061</v>
+        <v>0.6350673822186045</v>
       </c>
       <c r="Q4">
-        <v>60.00252981471544</v>
+        <v>60.00252981471581</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S4">
-        <v>119.997741886172</v>
+        <v>119.9977418861718</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -10095,22 +10095,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350725949804997</v>
+        <v>0.635072594980499</v>
       </c>
       <c r="O5">
         <v>1.100000023884847</v>
       </c>
       <c r="P5">
-        <v>0.6350673843705804</v>
+        <v>0.6350673843705792</v>
       </c>
       <c r="Q5">
-        <v>60.00252979362192</v>
+        <v>60.00252979362206</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999567</v>
       </c>
       <c r="S5">
-        <v>119.9977415921389</v>
+        <v>119.9977415921388</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -10157,22 +10157,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350726008281623</v>
+        <v>0.6350726008281613</v>
       </c>
       <c r="O6">
         <v>1.100000023884847</v>
       </c>
       <c r="P6">
-        <v>0.6350673811426188</v>
+        <v>0.6350673811426174</v>
       </c>
       <c r="Q6">
-        <v>60.00252982526255</v>
+        <v>60.00252982526276</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S6">
-        <v>119.9977420331885</v>
+        <v>119.9977420331883</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10219,22 +10219,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350726057012144</v>
+        <v>0.6350726057012134</v>
       </c>
       <c r="O7">
         <v>1.100000023884848</v>
       </c>
       <c r="P7">
-        <v>0.6350673784526508</v>
+        <v>0.6350673784526489</v>
       </c>
       <c r="Q7">
-        <v>60.00252985162975</v>
+        <v>60.00252985163004</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999564</v>
+        <v>-89.99999999999559</v>
       </c>
       <c r="S7">
-        <v>119.9977424007298</v>
+        <v>119.9977424007296</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -10281,22 +10281,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350726066758249</v>
+        <v>0.6350726066758237</v>
       </c>
       <c r="O8">
         <v>1.100000023884848</v>
       </c>
       <c r="P8">
-        <v>0.6350673779146569</v>
+        <v>0.6350673779146553</v>
       </c>
       <c r="Q8">
-        <v>60.0025298569032</v>
+        <v>60.00252985690351</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999564</v>
+        <v>-89.99999999999559</v>
       </c>
       <c r="S8">
-        <v>119.997742474238</v>
+        <v>119.9977424742379</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -10343,22 +10343,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350726086250453</v>
+        <v>0.6350726086250444</v>
       </c>
       <c r="O9">
         <v>1.100000023884848</v>
       </c>
       <c r="P9">
-        <v>0.63506737683867</v>
+        <v>0.6350673768386682</v>
       </c>
       <c r="Q9">
-        <v>60.0025298674501</v>
+        <v>60.00252986745038</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999562</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S9">
-        <v>119.9977426212545</v>
+        <v>119.9977426212544</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -10405,22 +10405,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.635072610574266</v>
+        <v>0.6350726105742651</v>
       </c>
       <c r="O10">
         <v>1.100000023884848</v>
       </c>
       <c r="P10">
-        <v>0.6350673757626826</v>
+        <v>0.6350673757626808</v>
       </c>
       <c r="Q10">
-        <v>60.00252987799702</v>
+        <v>60.00252987799729</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999561</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S10">
-        <v>119.997742768271</v>
+        <v>119.9977427682709</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -10467,22 +10467,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350726115488763</v>
+        <v>0.6350726115488753</v>
       </c>
       <c r="O11">
         <v>1.100000023884848</v>
       </c>
       <c r="P11">
-        <v>0.6350673752246887</v>
+        <v>0.6350673752246868</v>
       </c>
       <c r="Q11">
-        <v>60.00252988327051</v>
+        <v>60.00252988327077</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999559</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S11">
-        <v>119.9977428417793</v>
+        <v>119.9977428417791</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -10529,22 +10529,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350725832851748</v>
+        <v>0.635072583285174</v>
       </c>
       <c r="O12">
         <v>1.100000023884846</v>
       </c>
       <c r="P12">
-        <v>0.6350673908265025</v>
+        <v>0.6350673908265024</v>
       </c>
       <c r="Q12">
-        <v>60.00252973034071</v>
+        <v>60.00252973034078</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S12">
-        <v>119.9977407100398</v>
+        <v>119.9977407100397</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -10591,22 +10591,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350725832851747</v>
+        <v>0.635072583285174</v>
       </c>
       <c r="O13">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P13">
-        <v>0.6350673908265029</v>
+        <v>0.6350673908265028</v>
       </c>
       <c r="Q13">
         <v>60.00252973034075</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S13">
-        <v>119.9977407100398</v>
+        <v>119.9977407100397</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -10653,19 +10653,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350725862090062</v>
+        <v>0.6350725862090056</v>
       </c>
       <c r="O14">
         <v>1.100000023884846</v>
       </c>
       <c r="P14">
-        <v>0.6350673892125229</v>
+        <v>0.6350673892125223</v>
       </c>
       <c r="Q14">
-        <v>60.00252974616085</v>
+        <v>60.00252974616101</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S14">
         <v>119.9977409305646</v>
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350725881582269</v>
+        <v>0.6350725881582261</v>
       </c>
       <c r="O15">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P15">
-        <v>0.6350673881365356</v>
+        <v>0.6350673881365348</v>
       </c>
       <c r="Q15">
-        <v>60.00252975670783</v>
+        <v>60.00252975670793</v>
       </c>
       <c r="R15">
         <v>-89.99999999999569</v>
       </c>
       <c r="S15">
-        <v>119.9977410775811</v>
+        <v>119.997741077581</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -10777,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350725823105644</v>
+        <v>0.6350725823105636</v>
       </c>
       <c r="O16">
         <v>1.100000023884846</v>
@@ -10786,10 +10786,10 @@
         <v>0.6350673913644965</v>
       </c>
       <c r="Q16">
-        <v>60.00252972506726</v>
+        <v>60.0025297250673</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S16">
         <v>119.9977406365315</v>
@@ -10839,22 +10839,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350725823105644</v>
+        <v>0.6350725823105637</v>
       </c>
       <c r="O17">
         <v>1.100000023884846</v>
       </c>
       <c r="P17">
-        <v>0.6350673913644967</v>
+        <v>0.6350673913644966</v>
       </c>
       <c r="Q17">
-        <v>60.00252972506726</v>
+        <v>60.00252972506728</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S17">
-        <v>119.9977406365316</v>
+        <v>119.9977406365315</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350725910820585</v>
+        <v>0.6350725910820578</v>
       </c>
       <c r="O18">
         <v>1.100000023884847</v>
       </c>
       <c r="P18">
-        <v>0.6350673865225552</v>
+        <v>0.6350673865225541</v>
       </c>
       <c r="Q18">
-        <v>60.00252977252797</v>
+        <v>60.00252977252821</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S18">
-        <v>119.9977412981059</v>
+        <v>119.9977412981058</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -10963,22 +10963,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350725949805003</v>
+        <v>0.6350725949804995</v>
       </c>
       <c r="O19">
         <v>1.100000023884847</v>
       </c>
       <c r="P19">
-        <v>0.6350673843705809</v>
+        <v>0.6350673843705794</v>
       </c>
       <c r="Q19">
-        <v>60.00252979362169</v>
+        <v>60.002529793622</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S19">
-        <v>119.9977415921389</v>
+        <v>119.9977415921388</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -11025,22 +11025,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350725979043318</v>
+        <v>0.6350725979043308</v>
       </c>
       <c r="O20">
         <v>1.100000023884847</v>
       </c>
       <c r="P20">
-        <v>0.6350673827565999</v>
+        <v>0.6350673827565984</v>
       </c>
       <c r="Q20">
-        <v>60.00252980944199</v>
+        <v>60.00252980944234</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S20">
-        <v>119.9977418126637</v>
+        <v>119.9977418126636</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -11087,22 +11087,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350725988789422</v>
+        <v>0.6350725988789413</v>
       </c>
       <c r="O21">
         <v>1.100000023884847</v>
       </c>
       <c r="P21">
-        <v>0.6350673822186061</v>
+        <v>0.6350673822186046</v>
       </c>
       <c r="Q21">
-        <v>60.00252981471544</v>
+        <v>60.00252981471579</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S21">
-        <v>119.997741886172</v>
+        <v>119.9977418861718</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.73781549470328</v>
+        <v>57.73781549470331</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -11197,7 +11197,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>333.3494331828789</v>
+        <v>333.349433182879</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -11224,16 +11224,16 @@
         <v>0.1094540870674483</v>
       </c>
       <c r="N2">
-        <v>0.6350725641468637</v>
+        <v>0.6350725641468636</v>
       </c>
       <c r="O2">
         <v>1.100000023884843</v>
       </c>
       <c r="P2">
-        <v>0.6350674184895969</v>
+        <v>0.6350674184895968</v>
       </c>
       <c r="Q2">
-        <v>60.00252784543473</v>
+        <v>60.00252784543476</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -11286,22 +11286,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350725823189278</v>
+        <v>0.6350725823189265</v>
       </c>
       <c r="O3">
         <v>1.100000023884846</v>
       </c>
       <c r="P3">
-        <v>0.6350674019914165</v>
+        <v>0.6350674019914154</v>
       </c>
       <c r="Q3">
-        <v>60.00252861750562</v>
+        <v>60.0025286175058</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S3">
-        <v>119.9977411910505</v>
+        <v>119.9977411910503</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -11348,22 +11348,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350726008365258</v>
+        <v>0.6350726008365242</v>
       </c>
       <c r="O4">
-        <v>1.100000023884846</v>
+        <v>1.100000023884847</v>
       </c>
       <c r="P4">
-        <v>0.6350673917695387</v>
+        <v>0.6350673917695364</v>
       </c>
       <c r="Q4">
-        <v>60.00252871770076</v>
+        <v>60.00252871770122</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S4">
-        <v>119.9977425877073</v>
+        <v>119.9977425877071</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -11410,22 +11410,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350725969380836</v>
+        <v>0.6350725969380822</v>
       </c>
       <c r="O5">
         <v>1.100000023884847</v>
       </c>
       <c r="P5">
-        <v>0.6350673939215131</v>
+        <v>0.635067393921511</v>
       </c>
       <c r="Q5">
-        <v>60.00252869660722</v>
+        <v>60.00252869660753</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999565</v>
       </c>
       <c r="S5">
-        <v>119.9977422936743</v>
+        <v>119.9977422936741</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -11472,22 +11472,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350726027857458</v>
+        <v>0.6350726027857444</v>
       </c>
       <c r="O6">
         <v>1.100000023884847</v>
       </c>
       <c r="P6">
-        <v>0.6350673906935516</v>
+        <v>0.6350673906935492</v>
       </c>
       <c r="Q6">
-        <v>60.0025287282479</v>
+        <v>60.00252872824825</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999561</v>
       </c>
       <c r="S6">
-        <v>119.9977427347238</v>
+        <v>119.9977427347236</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -11534,22 +11534,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350726076587977</v>
+        <v>0.6350726076587964</v>
       </c>
       <c r="O7">
-        <v>1.100000023884847</v>
+        <v>1.100000023884848</v>
       </c>
       <c r="P7">
-        <v>0.6350673880035835</v>
+        <v>0.6350673880035809</v>
       </c>
       <c r="Q7">
-        <v>60.00252875461512</v>
+        <v>60.00252875461552</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999562</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S7">
-        <v>119.9977431022651</v>
+        <v>119.9977431022649</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -11596,22 +11596,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350726086334083</v>
+        <v>0.6350726086334068</v>
       </c>
       <c r="O8">
-        <v>1.100000023884847</v>
+        <v>1.100000023884848</v>
       </c>
       <c r="P8">
-        <v>0.6350673874655897</v>
+        <v>0.6350673874655871</v>
       </c>
       <c r="Q8">
-        <v>60.00252875988857</v>
+        <v>60.00252875988899</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999562</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S8">
-        <v>119.9977431757734</v>
+        <v>119.9977431757731</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -11658,22 +11658,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350726105826286</v>
+        <v>0.6350726105826274</v>
       </c>
       <c r="O9">
         <v>1.100000023884848</v>
       </c>
       <c r="P9">
-        <v>0.6350673863896027</v>
+        <v>0.6350673863896001</v>
       </c>
       <c r="Q9">
-        <v>60.00252877043548</v>
+        <v>60.00252877043587</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999559</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S9">
-        <v>119.9977433227899</v>
+        <v>119.9977433227896</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -11720,22 +11720,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350726125318494</v>
+        <v>0.6350726125318479</v>
       </c>
       <c r="O10">
         <v>1.100000023884848</v>
       </c>
       <c r="P10">
-        <v>0.6350673853136153</v>
+        <v>0.6350673853136127</v>
       </c>
       <c r="Q10">
-        <v>60.00252878098242</v>
+        <v>60.0025287809828</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999557</v>
       </c>
       <c r="S10">
-        <v>119.9977434698064</v>
+        <v>119.9977434698061</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -11782,22 +11782,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350726135064596</v>
+        <v>0.6350726135064582</v>
       </c>
       <c r="O11">
         <v>1.100000023884848</v>
       </c>
       <c r="P11">
-        <v>0.6350673847756214</v>
+        <v>0.6350673847756189</v>
       </c>
       <c r="Q11">
-        <v>60.00252878625589</v>
+        <v>60.00252878625628</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999557</v>
       </c>
       <c r="S11">
-        <v>119.9977435433146</v>
+        <v>119.9977435433143</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -11844,22 +11844,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350725852427589</v>
+        <v>0.6350725852427574</v>
       </c>
       <c r="O12">
         <v>1.100000023884846</v>
       </c>
       <c r="P12">
-        <v>0.6350674003774349</v>
+        <v>0.6350674003774339</v>
       </c>
       <c r="Q12">
-        <v>60.00252863332602</v>
+        <v>60.00252863332621</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S12">
-        <v>119.9977414115752</v>
+        <v>119.997741411575</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -11906,22 +11906,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350725852427589</v>
+        <v>0.6350725852427574</v>
       </c>
       <c r="O13">
         <v>1.100000023884846</v>
       </c>
       <c r="P13">
-        <v>0.6350674003774351</v>
+        <v>0.6350674003774341</v>
       </c>
       <c r="Q13">
-        <v>60.00252863332604</v>
+        <v>60.00252863332619</v>
       </c>
       <c r="R13">
         <v>-89.99999999999569</v>
       </c>
       <c r="S13">
-        <v>119.9977414115752</v>
+        <v>119.9977414115751</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -11968,22 +11968,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350725881665903</v>
+        <v>0.6350725881665886</v>
       </c>
       <c r="O14">
         <v>1.100000023884846</v>
       </c>
       <c r="P14">
-        <v>0.6350673987634553</v>
+        <v>0.6350673987634537</v>
       </c>
       <c r="Q14">
-        <v>60.00252864914616</v>
+        <v>60.00252864914646</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S14">
-        <v>119.9977416321</v>
+        <v>119.9977416320998</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -12030,22 +12030,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350725901158109</v>
+        <v>0.6350725901158095</v>
       </c>
       <c r="O15">
         <v>1.100000023884846</v>
       </c>
       <c r="P15">
-        <v>0.6350673976874679</v>
+        <v>0.6350673976874666</v>
       </c>
       <c r="Q15">
-        <v>60.00252865969315</v>
+        <v>60.00252865969338</v>
       </c>
       <c r="R15">
         <v>-89.99999999999569</v>
       </c>
       <c r="S15">
-        <v>119.9977417791165</v>
+        <v>119.9977417791163</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -12092,22 +12092,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350725842681485</v>
+        <v>0.6350725842681471</v>
       </c>
       <c r="O16">
         <v>1.100000023884846</v>
       </c>
       <c r="P16">
-        <v>0.6350674009154289</v>
+        <v>0.6350674009154278</v>
       </c>
       <c r="Q16">
-        <v>60.00252862805256</v>
+        <v>60.00252862805274</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S16">
-        <v>119.9977413380669</v>
+        <v>119.9977413380668</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -12154,22 +12154,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350725842681485</v>
+        <v>0.6350725842681471</v>
       </c>
       <c r="O17">
         <v>1.100000023884846</v>
       </c>
       <c r="P17">
-        <v>0.6350674009154291</v>
+        <v>0.635067400915428</v>
       </c>
       <c r="Q17">
-        <v>60.00252862805256</v>
+        <v>60.00252862805272</v>
       </c>
       <c r="R17">
         <v>-89.99999999999571</v>
       </c>
       <c r="S17">
-        <v>119.997741338067</v>
+        <v>119.9977413380668</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -12216,22 +12216,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350725930396425</v>
+        <v>0.6350725930396407</v>
       </c>
       <c r="O18">
         <v>1.100000023884846</v>
       </c>
       <c r="P18">
-        <v>0.6350673960734878</v>
+        <v>0.6350673960734856</v>
       </c>
       <c r="Q18">
-        <v>60.00252867551329</v>
+        <v>60.00252867551369</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S18">
-        <v>119.9977419996413</v>
+        <v>119.9977419996411</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -12278,22 +12278,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350725969380843</v>
+        <v>0.6350725969380825</v>
       </c>
       <c r="O19">
-        <v>1.100000023884846</v>
+        <v>1.100000023884847</v>
       </c>
       <c r="P19">
-        <v>0.6350673939215133</v>
+        <v>0.6350673939215111</v>
       </c>
       <c r="Q19">
-        <v>60.00252869660701</v>
+        <v>60.00252869660744</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S19">
-        <v>119.9977422936743</v>
+        <v>119.9977422936741</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -12340,22 +12340,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350725998619156</v>
+        <v>0.6350725998619138</v>
       </c>
       <c r="O20">
-        <v>1.100000023884846</v>
+        <v>1.100000023884847</v>
       </c>
       <c r="P20">
-        <v>0.6350673923075324</v>
+        <v>0.6350673923075303</v>
       </c>
       <c r="Q20">
-        <v>60.00252871242731</v>
+        <v>60.00252871242776</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S20">
-        <v>119.9977425141991</v>
+        <v>119.9977425141989</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -12402,22 +12402,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350726008365258</v>
+        <v>0.6350726008365242</v>
       </c>
       <c r="O21">
-        <v>1.100000023884846</v>
+        <v>1.100000023884847</v>
       </c>
       <c r="P21">
-        <v>0.6350673917695387</v>
+        <v>0.6350673917695365</v>
       </c>
       <c r="Q21">
-        <v>60.00252871770076</v>
+        <v>60.00252871770121</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S21">
-        <v>119.9977425877073</v>
+        <v>119.9977425877071</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -12533,7 +12533,7 @@
         <v>0.1094540870674546</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646507</v>
+        <v>0.01094540889646508</v>
       </c>
       <c r="M2">
         <v>0.1094540870674483</v>
@@ -12669,13 +12669,13 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P4">
-        <v>1.096496879204243</v>
+        <v>1.096496879204242</v>
       </c>
       <c r="Q4">
         <v>29.92212937400229</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S4">
         <v>149.5246563109484</v>
@@ -13044,7 +13044,7 @@
         <v>1.096496879082255</v>
       </c>
       <c r="Q10">
-        <v>29.92212938301428</v>
+        <v>29.92212938301429</v>
       </c>
       <c r="R10">
         <v>-89.99999999999635</v>
@@ -13112,7 +13112,7 @@
         <v>-89.99999999999635</v>
       </c>
       <c r="S11">
-        <v>149.5246563184469</v>
+        <v>149.524656318447</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -13295,7 +13295,7 @@
         <v>29.9221293642393</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S14">
         <v>149.5246563034498</v>
@@ -13419,7 +13419,7 @@
         <v>29.92212936123531</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S16">
         <v>149.5246563011425</v>
@@ -13481,7 +13481,7 @@
         <v>29.92212936123531</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S17">
         <v>149.5246563011425</v>
@@ -13605,7 +13605,7 @@
         <v>29.9221293709983</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S19">
         <v>149.5246563086411</v>
@@ -13664,7 +13664,7 @@
         <v>1.096496879214408</v>
       </c>
       <c r="Q20">
-        <v>29.9221293732513</v>
+        <v>29.92212937325129</v>
       </c>
       <c r="R20">
         <v>-89.99999999999635</v>
@@ -13723,13 +13723,13 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P21">
-        <v>1.096496879204243</v>
+        <v>1.096496879204242</v>
       </c>
       <c r="Q21">
         <v>29.92212937400229</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S21">
         <v>149.5246563109484</v>
@@ -14486,7 +14486,7 @@
         <v>29.92212937479822</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S4">
         <v>149.5246563114193</v>
@@ -14669,7 +14669,7 @@
         <v>1.096496879120783</v>
       </c>
       <c r="Q7">
-        <v>29.92212938005521</v>
+        <v>29.92212938005522</v>
       </c>
       <c r="R7">
         <v>-89.99999999999635</v>
@@ -14855,7 +14855,7 @@
         <v>1.096496879069955</v>
       </c>
       <c r="Q10">
-        <v>29.9221293838102</v>
+        <v>29.92212938381021</v>
       </c>
       <c r="R10">
         <v>-89.99999999999635</v>
@@ -14908,7 +14908,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.09035255165443</v>
+        <v>1.090352551654429</v>
       </c>
       <c r="O11">
         <v>1.100000023842583</v>
@@ -14917,7 +14917,7 @@
         <v>1.096496879059789</v>
       </c>
       <c r="Q11">
-        <v>29.9221293845612</v>
+        <v>29.92212938456121</v>
       </c>
       <c r="R11">
         <v>-89.99999999999635</v>
@@ -14982,7 +14982,7 @@
         <v>29.92212936278223</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S12">
         <v>149.5246563021902</v>
@@ -15044,7 +15044,7 @@
         <v>29.92212936278223</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S13">
         <v>149.5246563021902</v>
@@ -15106,7 +15106,7 @@
         <v>29.92212936503523</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S14">
         <v>149.5246563039207</v>
@@ -15230,7 +15230,7 @@
         <v>29.92212936203123</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S16">
         <v>149.5246563016134</v>
@@ -15292,7 +15292,7 @@
         <v>29.92212936203123</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S17">
         <v>149.5246563016134</v>
@@ -15354,7 +15354,7 @@
         <v>29.92212936879023</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S18">
         <v>149.5246563068048</v>
@@ -15466,7 +15466,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.090352551590362</v>
+        <v>1.090352551590361</v>
       </c>
       <c r="O20">
         <v>1.100000023842583</v>
@@ -15475,10 +15475,10 @@
         <v>1.096496879202108</v>
       </c>
       <c r="Q20">
-        <v>29.92212937404721</v>
+        <v>29.92212937404722</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S20">
         <v>149.5246563108425</v>
@@ -15540,7 +15540,7 @@
         <v>29.92212937479822</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S21">
         <v>149.5246563114193</v>
@@ -15727,22 +15727,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773371184169133</v>
+        <v>0.5773371184169128</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P3">
-        <v>0.5773317697850939</v>
+        <v>0.5773317697850948</v>
       </c>
       <c r="Q3">
-        <v>60.00287353246908</v>
+        <v>60.00287353246904</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S3">
-        <v>119.9974328963524</v>
+        <v>119.9974328963523</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -15789,22 +15789,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773371387202206</v>
+        <v>0.5773371387202196</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962931</v>
       </c>
       <c r="P4">
-        <v>0.5773317639614555</v>
+        <v>0.5773317639614562</v>
       </c>
       <c r="Q4">
-        <v>60.00287303628517</v>
+        <v>60.00287303628519</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S4">
-        <v>119.9974348893884</v>
+        <v>119.9974348893882</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -15851,22 +15851,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773371344458402</v>
+        <v>0.57733713444584</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962933</v>
       </c>
       <c r="P5">
-        <v>0.5773317651874855</v>
+        <v>0.5773317651874859</v>
       </c>
       <c r="Q5">
         <v>60.00287314074482</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999595</v>
       </c>
       <c r="S5">
-        <v>119.9974344698019</v>
+        <v>119.9974344698018</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -15913,22 +15913,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773371408574111</v>
+        <v>0.5773371408574108</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962931</v>
       </c>
       <c r="P6">
-        <v>0.5773317633484423</v>
+        <v>0.5773317633484425</v>
       </c>
       <c r="Q6">
         <v>60.00287298405514</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999595</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S6">
-        <v>119.9974350991817</v>
+        <v>119.9974350991816</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -15978,19 +15978,19 @@
         <v>0.5773371462003867</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P7">
-        <v>0.5773317618159062</v>
+        <v>0.577331761815906</v>
       </c>
       <c r="Q7">
-        <v>60.00287285348041</v>
+        <v>60.00287285348044</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S7">
-        <v>119.9974356236649</v>
+        <v>119.9974356236648</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -16040,7 +16040,7 @@
         <v>0.5773371472689818</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P8">
         <v>0.5773317615093989</v>
@@ -16049,10 +16049,10 @@
         <v>60.00287282736547</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S8">
-        <v>119.9974357285615</v>
+        <v>119.9974357285614</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -16099,22 +16099,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773371494061721</v>
+        <v>0.577337149406172</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P9">
-        <v>0.5773317608963846</v>
+        <v>0.5773317608963845</v>
       </c>
       <c r="Q9">
-        <v>60.00287277513556</v>
+        <v>60.00287277513558</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S9">
-        <v>119.9974359383548</v>
+        <v>119.9974359383547</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -16161,22 +16161,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773371515433625</v>
+        <v>0.5773371515433624</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962923</v>
+        <v>0.9999999999962926</v>
       </c>
       <c r="P10">
         <v>0.5773317602833702</v>
       </c>
       <c r="Q10">
-        <v>60.00287272290565</v>
+        <v>60.00287272290568</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999599</v>
+        <v>-89.99999999999602</v>
       </c>
       <c r="S10">
-        <v>119.9974361481481</v>
+        <v>119.997436148148</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -16223,22 +16223,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773371526119577</v>
+        <v>0.5773371526119576</v>
       </c>
       <c r="O11">
-        <v>0.9999999999962923</v>
+        <v>0.9999999999962925</v>
       </c>
       <c r="P11">
         <v>0.577331759976863</v>
       </c>
       <c r="Q11">
-        <v>60.0028726967907</v>
+        <v>60.00287269679072</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999602</v>
       </c>
       <c r="S11">
-        <v>119.9974362530447</v>
+        <v>119.9974362530446</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -16285,22 +16285,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.577337121622699</v>
+        <v>0.5773371216226983</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962936</v>
       </c>
       <c r="P12">
-        <v>0.5773317688655721</v>
+        <v>0.5773317688655729</v>
       </c>
       <c r="Q12">
-        <v>60.00287345412424</v>
+        <v>60.00287345412421</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S12">
-        <v>119.9974332110423</v>
+        <v>119.9974332110422</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -16347,22 +16347,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773371216226989</v>
+        <v>0.5773371216226985</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962932</v>
+        <v>0.9999999999962936</v>
       </c>
       <c r="P13">
-        <v>0.577331768865572</v>
+        <v>0.5773317688655729</v>
       </c>
       <c r="Q13">
-        <v>60.00287345412422</v>
+        <v>60.00287345412419</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S13">
-        <v>119.9974332110423</v>
+        <v>119.9974332110422</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -16409,22 +16409,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773371248284841</v>
+        <v>0.5773371248284834</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962931</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P14">
-        <v>0.5773317679460502</v>
+        <v>0.577331767946051</v>
       </c>
       <c r="Q14">
         <v>60.00287337577939</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S14">
-        <v>119.9974335257321</v>
+        <v>119.997433525732</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -16471,22 +16471,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773371269656744</v>
+        <v>0.577337126965674</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962931</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P15">
-        <v>0.577331767333036</v>
+        <v>0.5773317673330366</v>
       </c>
       <c r="Q15">
-        <v>60.00287332354947</v>
+        <v>60.00287332354944</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S15">
-        <v>119.9974337355254</v>
+        <v>119.9974337355253</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -16533,22 +16533,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773371205541038</v>
+        <v>0.5773371205541031</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P16">
-        <v>0.5773317691720794</v>
+        <v>0.5773317691720802</v>
       </c>
       <c r="Q16">
-        <v>60.0028734802392</v>
+        <v>60.00287348023915</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S16">
-        <v>119.9974331061456</v>
+        <v>119.9974331061455</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -16595,22 +16595,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773371205541038</v>
+        <v>0.5773371205541032</v>
       </c>
       <c r="O17">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P17">
-        <v>0.5773317691720794</v>
+        <v>0.5773317691720801</v>
       </c>
       <c r="Q17">
-        <v>60.00287348023918</v>
+        <v>60.00287348023915</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S17">
-        <v>119.9974331061456</v>
+        <v>119.9974331061455</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -16657,22 +16657,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773371301714597</v>
+        <v>0.5773371301714588</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962934</v>
       </c>
       <c r="P18">
-        <v>0.5773317664135137</v>
+        <v>0.5773317664135146</v>
       </c>
       <c r="Q18">
         <v>60.0028732452047</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S18">
-        <v>119.9974340502153</v>
+        <v>119.9974340502152</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -16719,22 +16719,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773371344458402</v>
+        <v>0.5773371344458392</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962933</v>
       </c>
       <c r="P19">
-        <v>0.5773317651874846</v>
+        <v>0.5773317651874854</v>
       </c>
       <c r="Q19">
-        <v>60.00287314074493</v>
+        <v>60.00287314074495</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S19">
-        <v>119.9974344698018</v>
+        <v>119.9974344698017</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -16781,22 +16781,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773371376516255</v>
+        <v>0.5773371376516246</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962932</v>
       </c>
       <c r="P20">
-        <v>0.5773317642679627</v>
+        <v>0.5773317642679635</v>
       </c>
       <c r="Q20">
-        <v>60.00287306240011</v>
+        <v>60.00287306240013</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S20">
-        <v>119.9974347844917</v>
+        <v>119.9974347844916</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -16843,22 +16843,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773371387202206</v>
+        <v>0.5773371387202197</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962931</v>
       </c>
       <c r="P21">
-        <v>0.5773317639614555</v>
+        <v>0.5773317639614562</v>
       </c>
       <c r="Q21">
-        <v>60.00287303628517</v>
+        <v>60.00287303628518</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S21">
-        <v>119.9974348893884</v>
+        <v>119.9974348893882</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -17042,22 +17042,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773371184169133</v>
+        <v>0.5773371184169128</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P3">
-        <v>0.5773317697850939</v>
+        <v>0.5773317697850948</v>
       </c>
       <c r="Q3">
-        <v>60.00287353246908</v>
+        <v>60.00287353246904</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S3">
-        <v>119.9974328963524</v>
+        <v>119.9974328963523</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -17104,22 +17104,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773371387202206</v>
+        <v>0.5773371387202196</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962931</v>
       </c>
       <c r="P4">
-        <v>0.5773317639614555</v>
+        <v>0.5773317639614562</v>
       </c>
       <c r="Q4">
-        <v>60.00287303628517</v>
+        <v>60.00287303628519</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S4">
-        <v>119.9974348893884</v>
+        <v>119.9974348893882</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -17166,22 +17166,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773371344458402</v>
+        <v>0.57733713444584</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962933</v>
       </c>
       <c r="P5">
-        <v>0.5773317651874855</v>
+        <v>0.5773317651874859</v>
       </c>
       <c r="Q5">
         <v>60.00287314074482</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999595</v>
       </c>
       <c r="S5">
-        <v>119.9974344698019</v>
+        <v>119.9974344698018</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -17228,22 +17228,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773371408574111</v>
+        <v>0.5773371408574108</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962931</v>
       </c>
       <c r="P6">
-        <v>0.5773317633484423</v>
+        <v>0.5773317633484425</v>
       </c>
       <c r="Q6">
         <v>60.00287298405514</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999595</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S6">
-        <v>119.9974350991817</v>
+        <v>119.9974350991816</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -17293,19 +17293,19 @@
         <v>0.5773371462003867</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P7">
-        <v>0.5773317618159062</v>
+        <v>0.577331761815906</v>
       </c>
       <c r="Q7">
-        <v>60.00287285348041</v>
+        <v>60.00287285348044</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S7">
-        <v>119.9974356236649</v>
+        <v>119.9974356236648</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -17355,7 +17355,7 @@
         <v>0.5773371472689818</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P8">
         <v>0.5773317615093989</v>
@@ -17364,10 +17364,10 @@
         <v>60.00287282736547</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S8">
-        <v>119.9974357285615</v>
+        <v>119.9974357285614</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -17414,22 +17414,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773371494061721</v>
+        <v>0.577337149406172</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P9">
-        <v>0.5773317608963846</v>
+        <v>0.5773317608963845</v>
       </c>
       <c r="Q9">
-        <v>60.00287277513556</v>
+        <v>60.00287277513558</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S9">
-        <v>119.9974359383548</v>
+        <v>119.9974359383547</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -17476,22 +17476,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773371515433625</v>
+        <v>0.5773371515433624</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962923</v>
+        <v>0.9999999999962926</v>
       </c>
       <c r="P10">
         <v>0.5773317602833702</v>
       </c>
       <c r="Q10">
-        <v>60.00287272290565</v>
+        <v>60.00287272290568</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999599</v>
+        <v>-89.99999999999602</v>
       </c>
       <c r="S10">
-        <v>119.9974361481481</v>
+        <v>119.997436148148</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -17538,22 +17538,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773371526119577</v>
+        <v>0.5773371526119576</v>
       </c>
       <c r="O11">
-        <v>0.9999999999962923</v>
+        <v>0.9999999999962925</v>
       </c>
       <c r="P11">
         <v>0.577331759976863</v>
       </c>
       <c r="Q11">
-        <v>60.0028726967907</v>
+        <v>60.00287269679072</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999602</v>
       </c>
       <c r="S11">
-        <v>119.9974362530447</v>
+        <v>119.9974362530446</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -17600,22 +17600,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.577337121622699</v>
+        <v>0.5773371216226983</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962936</v>
       </c>
       <c r="P12">
-        <v>0.5773317688655721</v>
+        <v>0.5773317688655729</v>
       </c>
       <c r="Q12">
-        <v>60.00287345412424</v>
+        <v>60.00287345412421</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S12">
-        <v>119.9974332110423</v>
+        <v>119.9974332110422</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -17662,22 +17662,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773371216226989</v>
+        <v>0.5773371216226985</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962932</v>
+        <v>0.9999999999962936</v>
       </c>
       <c r="P13">
-        <v>0.577331768865572</v>
+        <v>0.5773317688655729</v>
       </c>
       <c r="Q13">
-        <v>60.00287345412422</v>
+        <v>60.00287345412419</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S13">
-        <v>119.9974332110423</v>
+        <v>119.9974332110422</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -17724,22 +17724,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773371248284841</v>
+        <v>0.5773371248284834</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962931</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P14">
-        <v>0.5773317679460502</v>
+        <v>0.577331767946051</v>
       </c>
       <c r="Q14">
         <v>60.00287337577939</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S14">
-        <v>119.9974335257321</v>
+        <v>119.997433525732</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -17786,22 +17786,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773371269656744</v>
+        <v>0.577337126965674</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962931</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P15">
-        <v>0.577331767333036</v>
+        <v>0.5773317673330366</v>
       </c>
       <c r="Q15">
-        <v>60.00287332354947</v>
+        <v>60.00287332354944</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S15">
-        <v>119.9974337355254</v>
+        <v>119.9974337355253</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -17848,22 +17848,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773371205541038</v>
+        <v>0.5773371205541031</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P16">
-        <v>0.5773317691720794</v>
+        <v>0.5773317691720802</v>
       </c>
       <c r="Q16">
-        <v>60.0028734802392</v>
+        <v>60.00287348023915</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S16">
-        <v>119.9974331061456</v>
+        <v>119.9974331061455</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -17910,22 +17910,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773371205541038</v>
+        <v>0.5773371205541032</v>
       </c>
       <c r="O17">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P17">
-        <v>0.5773317691720794</v>
+        <v>0.5773317691720801</v>
       </c>
       <c r="Q17">
-        <v>60.00287348023918</v>
+        <v>60.00287348023915</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S17">
-        <v>119.9974331061456</v>
+        <v>119.9974331061455</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -17972,22 +17972,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773371301714597</v>
+        <v>0.5773371301714588</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962934</v>
       </c>
       <c r="P18">
-        <v>0.5773317664135137</v>
+        <v>0.5773317664135146</v>
       </c>
       <c r="Q18">
         <v>60.0028732452047</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S18">
-        <v>119.9974340502153</v>
+        <v>119.9974340502152</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -18034,22 +18034,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773371344458402</v>
+        <v>0.5773371344458392</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962933</v>
       </c>
       <c r="P19">
-        <v>0.5773317651874846</v>
+        <v>0.5773317651874854</v>
       </c>
       <c r="Q19">
-        <v>60.00287314074493</v>
+        <v>60.00287314074495</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S19">
-        <v>119.9974344698018</v>
+        <v>119.9974344698017</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -18096,22 +18096,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773371376516255</v>
+        <v>0.5773371376516246</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962932</v>
       </c>
       <c r="P20">
-        <v>0.5773317642679627</v>
+        <v>0.5773317642679635</v>
       </c>
       <c r="Q20">
-        <v>60.00287306240011</v>
+        <v>60.00287306240013</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S20">
-        <v>119.9974347844917</v>
+        <v>119.9974347844916</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -18158,22 +18158,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773371387202206</v>
+        <v>0.5773371387202197</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962931</v>
       </c>
       <c r="P21">
-        <v>0.5773317639614555</v>
+        <v>0.5773317639614562</v>
       </c>
       <c r="Q21">
-        <v>60.00287303628517</v>
+        <v>60.00287303628518</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S21">
-        <v>119.9974348893884</v>
+        <v>119.9974348893882</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -18484,7 +18484,7 @@
         <v>0.9900480076939761</v>
       </c>
       <c r="O5">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P5">
         <v>0.996379888850407</v>
@@ -18546,10 +18546,10 @@
         <v>0.990048007760159</v>
       </c>
       <c r="O6">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P6">
-        <v>0.9963798888010832</v>
+        <v>0.9963798888010831</v>
       </c>
       <c r="Q6">
         <v>29.91230372270408</v>
@@ -18611,7 +18611,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P7">
-        <v>0.9963798887599798</v>
+        <v>0.99637988875998</v>
       </c>
       <c r="Q7">
         <v>29.9123037272478</v>
@@ -18667,13 +18667,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9900480078263423</v>
+        <v>0.9900480078263424</v>
       </c>
       <c r="O8">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P8">
-        <v>0.9963798887517593</v>
+        <v>0.9963798887517592</v>
       </c>
       <c r="Q8">
         <v>29.91230372815655</v>
@@ -18729,13 +18729,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9900480078484034</v>
+        <v>0.9900480078484032</v>
       </c>
       <c r="O9">
         <v>0.9999999999994829</v>
       </c>
       <c r="P9">
-        <v>0.9963798887353181</v>
+        <v>0.996379888735318</v>
       </c>
       <c r="Q9">
         <v>29.91230372997404</v>
@@ -18791,13 +18791,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9900480078704643</v>
+        <v>0.9900480078704642</v>
       </c>
       <c r="O10">
         <v>0.9999999999994827</v>
       </c>
       <c r="P10">
-        <v>0.9963798887188767</v>
+        <v>0.9963798887188769</v>
       </c>
       <c r="Q10">
         <v>29.91230373179153</v>
@@ -19039,7 +19039,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9900480075947011</v>
+        <v>0.9900480075947012</v>
       </c>
       <c r="O14">
         <v>0.9999999999994827</v>
@@ -19101,7 +19101,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9900480076167624</v>
+        <v>0.9900480076167623</v>
       </c>
       <c r="O15">
         <v>0.9999999999994829</v>
@@ -19169,7 +19169,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P16">
-        <v>0.9963798889572751</v>
+        <v>0.996379888957275</v>
       </c>
       <c r="Q16">
         <v>29.91230370543791</v>
@@ -19231,7 +19231,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P17">
-        <v>0.9963798889572751</v>
+        <v>0.996379888957275</v>
       </c>
       <c r="Q17">
         <v>29.91230370543791</v>
@@ -19293,7 +19293,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P18">
-        <v>0.9963798888832895</v>
+        <v>0.9963798888832893</v>
       </c>
       <c r="Q18">
         <v>29.91230371361662</v>
@@ -19302,7 +19302,7 @@
         <v>-89.99999999999636</v>
       </c>
       <c r="S18">
-        <v>149.4607567687773</v>
+        <v>149.4607567687772</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480076939758</v>
+        <v>0.9900480076939761</v>
       </c>
       <c r="O19">
         <v>0.9999999999994827</v>
@@ -19799,7 +19799,7 @@
         <v>0.9900480076939761</v>
       </c>
       <c r="O5">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P5">
         <v>0.996379888850407</v>
@@ -19861,10 +19861,10 @@
         <v>0.990048007760159</v>
       </c>
       <c r="O6">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P6">
-        <v>0.9963798888010832</v>
+        <v>0.9963798888010831</v>
       </c>
       <c r="Q6">
         <v>29.91230372270408</v>
@@ -19926,7 +19926,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P7">
-        <v>0.9963798887599798</v>
+        <v>0.99637988875998</v>
       </c>
       <c r="Q7">
         <v>29.9123037272478</v>
@@ -19982,13 +19982,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9900480078263423</v>
+        <v>0.9900480078263424</v>
       </c>
       <c r="O8">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P8">
-        <v>0.9963798887517593</v>
+        <v>0.9963798887517592</v>
       </c>
       <c r="Q8">
         <v>29.91230372815655</v>
@@ -20044,13 +20044,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9900480078484034</v>
+        <v>0.9900480078484032</v>
       </c>
       <c r="O9">
         <v>0.9999999999994829</v>
       </c>
       <c r="P9">
-        <v>0.9963798887353181</v>
+        <v>0.996379888735318</v>
       </c>
       <c r="Q9">
         <v>29.91230372997404</v>
@@ -20106,13 +20106,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9900480078704643</v>
+        <v>0.9900480078704642</v>
       </c>
       <c r="O10">
         <v>0.9999999999994827</v>
       </c>
       <c r="P10">
-        <v>0.9963798887188767</v>
+        <v>0.9963798887188769</v>
       </c>
       <c r="Q10">
         <v>29.91230373179153</v>
@@ -20354,7 +20354,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9900480075947011</v>
+        <v>0.9900480075947012</v>
       </c>
       <c r="O14">
         <v>0.9999999999994827</v>
@@ -20416,7 +20416,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9900480076167624</v>
+        <v>0.9900480076167623</v>
       </c>
       <c r="O15">
         <v>0.9999999999994829</v>
@@ -20484,7 +20484,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P16">
-        <v>0.9963798889572751</v>
+        <v>0.996379888957275</v>
       </c>
       <c r="Q16">
         <v>29.91230370543791</v>
@@ -20546,7 +20546,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P17">
-        <v>0.9963798889572751</v>
+        <v>0.996379888957275</v>
       </c>
       <c r="Q17">
         <v>29.91230370543791</v>
@@ -20608,7 +20608,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P18">
-        <v>0.9963798888832895</v>
+        <v>0.9963798888832893</v>
       </c>
       <c r="Q18">
         <v>29.91230371361662</v>
@@ -20617,7 +20617,7 @@
         <v>-89.99999999999636</v>
       </c>
       <c r="S18">
-        <v>149.4607567687773</v>
+        <v>149.4607567687772</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -20664,7 +20664,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480076939758</v>
+        <v>0.9900480076939761</v>
       </c>
       <c r="O19">
         <v>0.9999999999994827</v>
@@ -20895,7 +20895,7 @@
         <v>57.7361891589993</v>
       </c>
       <c r="D2">
-        <v>57.73665779988408</v>
+        <v>57.73665779988409</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -20907,7 +20907,7 @@
         <v>333.3427492287238</v>
       </c>
       <c r="H2">
-        <v>0.01094228568963189</v>
+        <v>0.01094228568963188</v>
       </c>
       <c r="I2">
         <v>0.1094383946554753</v>
@@ -20925,7 +20925,7 @@
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.6350546586525604</v>
+        <v>0.6350546586525607</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -20934,7 +20934,7 @@
         <v>0.6350546586685618</v>
       </c>
       <c r="Q2">
-        <v>0.0002685308235050258</v>
+        <v>0.0002685308235283465</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -20943,7 +20943,7 @@
         <v>-179.9997314682416</v>
       </c>
       <c r="T2">
-        <v>57.74060313987399</v>
+        <v>57.74060313987401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -20987,22 +20987,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350546429056423</v>
+        <v>0.6350546429056426</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350546760135926</v>
+        <v>0.6350546760135924</v>
       </c>
       <c r="Q3">
-        <v>0.0002695176214235225</v>
+        <v>0.0002695176214464719</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9997307311271</v>
+        <v>-179.999730731127</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -21049,22 +21049,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350546326853445</v>
+        <v>0.6350546326853436</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350546945307262</v>
+        <v>0.6350546945307255</v>
       </c>
       <c r="Q4">
-        <v>0.0002709143440116555</v>
+        <v>0.0002709143440578145</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9997306307914</v>
+        <v>-179.9997306307913</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -21111,22 +21111,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350546348369831</v>
+        <v>0.6350546348369833</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350546906323825</v>
+        <v>0.6350546906323813</v>
       </c>
       <c r="Q5">
-        <v>0.0002706202969112642</v>
+        <v>0.0002706202970702958</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9997306519146</v>
+        <v>-179.9997306519145</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -21173,22 +21173,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350546316095192</v>
+        <v>0.6350546316095196</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350546964798983</v>
+        <v>0.6350546964798967</v>
       </c>
       <c r="Q6">
-        <v>0.0002710613671195446</v>
+        <v>0.0002710613673421064</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9997306202297</v>
+        <v>-179.9997306202296</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -21235,22 +21235,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350546289199663</v>
+        <v>0.6350546289199662</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350547013528283</v>
+        <v>0.6350547013528262</v>
       </c>
       <c r="Q7">
-        <v>0.0002714289256454102</v>
+        <v>0.0002714289258961337</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9997305938255</v>
+        <v>-179.9997305938254</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -21297,16 +21297,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.635054628382056</v>
+        <v>0.6350546283820556</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350547023274143</v>
+        <v>0.635054702327412</v>
       </c>
       <c r="Q8">
-        <v>0.0002715024373700344</v>
+        <v>0.0002715024376044797</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -21359,22 +21359,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350546273062345</v>
+        <v>0.6350546273062344</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350547042765862</v>
+        <v>0.6350547042765841</v>
       </c>
       <c r="Q9">
-        <v>0.0002716494607616616</v>
+        <v>0.0002716494610123849</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.999730577983</v>
+        <v>-179.9997305779829</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -21427,16 +21427,16 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350547062257581</v>
+        <v>0.6350547062257561</v>
       </c>
       <c r="Q10">
-        <v>0.0002717964841704757</v>
+        <v>0.0002717964844211989</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.9997305674213</v>
+        <v>-179.9997305674212</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -21483,22 +21483,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350546256925024</v>
+        <v>0.6350546256925022</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.635054707200344</v>
+        <v>0.6350547072003419</v>
       </c>
       <c r="Q11">
-        <v>0.0002718699958779801</v>
+        <v>0.0002718699961287032</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.9997305621405</v>
+        <v>-179.9997305621404</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -21545,7 +21545,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.63505464129191</v>
+        <v>0.6350546412919102</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -21554,13 +21554,13 @@
         <v>0.6350546789373503</v>
       </c>
       <c r="Q12">
-        <v>0.0002697381565230435</v>
+        <v>0.0002697381565352243</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9997307152846</v>
+        <v>-179.9997307152845</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -21607,22 +21607,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.63505464129191</v>
+        <v>0.6350546412919105</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350546789373502</v>
+        <v>0.6350546789373505</v>
       </c>
       <c r="Q13">
-        <v>0.0002697381564836098</v>
+        <v>0.0002697381565207174</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.9997307152846</v>
+        <v>-179.9997307152845</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -21669,7 +21669,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350546396781798</v>
+        <v>0.6350546396781797</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -21678,13 +21678,13 @@
         <v>0.6350546818611084</v>
       </c>
       <c r="Q14">
-        <v>0.0002699586916905751</v>
+        <v>0.0002699586917016915</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9997306994422</v>
+        <v>-179.999730699442</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -21731,16 +21731,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350546386023574</v>
+        <v>0.6350546386023577</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350546838102805</v>
+        <v>0.6350546838102799</v>
       </c>
       <c r="Q15">
-        <v>0.0002701057150092577</v>
+        <v>0.0002701057151037311</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -21793,7 +21793,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.635054641829821</v>
+        <v>0.6350546418298211</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -21802,13 +21802,13 @@
         <v>0.6350546779627644</v>
       </c>
       <c r="Q16">
-        <v>0.0002696646448181033</v>
+        <v>0.0002696646448302841</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.9997307205654</v>
+        <v>-179.9997307205653</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -21855,16 +21855,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.635054641829821</v>
+        <v>0.6350546418298212</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350546779627643</v>
+        <v>0.6350546779627644</v>
       </c>
       <c r="Q17">
-        <v>0.000269664644799669</v>
+        <v>0.0002696646448305875</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -21917,22 +21917,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350546369886277</v>
+        <v>0.6350546369886274</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350546867340383</v>
+        <v>0.635054686734038</v>
       </c>
       <c r="Q18">
-        <v>0.000270326250269405</v>
+        <v>0.0002703262502776024</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.999730673038</v>
+        <v>-179.9997306730379</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -21979,22 +21979,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350546348369862</v>
+        <v>0.6350546348369857</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350546906323822</v>
+        <v>0.6350546906323817</v>
       </c>
       <c r="Q19">
-        <v>0.0002706202971544906</v>
+        <v>0.0002706202971537095</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9997306519147</v>
+        <v>-179.9997306519146</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -22041,22 +22041,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350546332232551</v>
+        <v>0.6350546332232542</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350546935561403</v>
+        <v>0.6350546935561395</v>
       </c>
       <c r="Q20">
-        <v>0.0002708408323108713</v>
+        <v>0.0002708408323273535</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9997306360723</v>
+        <v>-179.9997306360721</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -22103,22 +22103,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350546326853445</v>
+        <v>0.6350546326853436</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350546945307262</v>
+        <v>0.6350546945307253</v>
       </c>
       <c r="Q21">
-        <v>0.0002709143440058723</v>
+        <v>0.0002709143440339208</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9997306307914</v>
+        <v>-179.9997306307913</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -22240,16 +22240,16 @@
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.6350546700868613</v>
+        <v>0.6350546700868611</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350546701028627</v>
+        <v>0.6350546701028625</v>
       </c>
       <c r="Q2">
-        <v>0.0002680531534665988</v>
+        <v>0.0002680531534898941</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -22302,16 +22302,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350546535900897</v>
+        <v>0.6350546535900887</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350546882738473</v>
+        <v>0.6350546882738466</v>
       </c>
       <c r="Q3">
-        <v>0.0002690869418238774</v>
+        <v>0.0002690869419050596</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -22364,22 +22364,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350546433697914</v>
+        <v>0.6350546433697891</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350547067909806</v>
+        <v>0.6350547067909794</v>
       </c>
       <c r="Q4">
-        <v>0.0002704836643923487</v>
+        <v>0.0002704836645192393</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9997310733609</v>
+        <v>-179.9997310733608</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -22426,16 +22426,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350546455214301</v>
+        <v>0.6350546455214291</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350547028926374</v>
+        <v>0.6350547028926354</v>
       </c>
       <c r="Q5">
-        <v>0.0002701896172693376</v>
+        <v>0.0002701896175092727</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -22488,22 +22488,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350546422939662</v>
+        <v>0.6350546422939654</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350547087401528</v>
+        <v>0.6350547087401508</v>
       </c>
       <c r="Q6">
-        <v>0.0002706306874534155</v>
+        <v>0.0002706306877610245</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9997310627991</v>
+        <v>-179.999731062799</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350546396044132</v>
+        <v>0.635054639604412</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350547136130827</v>
+        <v>0.6350547136130802</v>
       </c>
       <c r="Q7">
-        <v>0.000270998245974966</v>
+        <v>0.0002709982463031346</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -22612,16 +22612,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350546390665024</v>
+        <v>0.6350546390665013</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350547145876688</v>
+        <v>0.6350547145876663</v>
       </c>
       <c r="Q8">
-        <v>0.0002710717576754486</v>
+        <v>0.000271071758007512</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -22674,16 +22674,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350546379906811</v>
+        <v>0.63505463799068</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350547165368404</v>
+        <v>0.635054716536838</v>
       </c>
       <c r="Q9">
-        <v>0.0002712187810726004</v>
+        <v>0.0002712187814123349</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -22736,16 +22736,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350546369148599</v>
+        <v>0.6350546369148586</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350547184860124</v>
+        <v>0.6350547184860098</v>
       </c>
       <c r="Q10">
-        <v>0.0002713658044767139</v>
+        <v>0.0002713658048164483</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -22798,16 +22798,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.635054636376949</v>
+        <v>0.6350546363769477</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350547194605983</v>
+        <v>0.6350547194605958</v>
       </c>
       <c r="Q11">
-        <v>0.000271439316181868</v>
+        <v>0.0002714393165331686</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -22860,16 +22860,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350546519763572</v>
+        <v>0.6350546519763566</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350546911976053</v>
+        <v>0.6350546911976046</v>
       </c>
       <c r="Q12">
-        <v>0.0002693074769283624</v>
+        <v>0.0002693074769885472</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -22922,16 +22922,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350546519763572</v>
+        <v>0.6350546519763567</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350546911976053</v>
+        <v>0.6350546911976046</v>
       </c>
       <c r="Q13">
-        <v>0.0002693074768649205</v>
+        <v>0.0002693074769851032</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -22984,22 +22984,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350546503626269</v>
+        <v>0.6350546503626254</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350546941213634</v>
+        <v>0.6350546941213623</v>
       </c>
       <c r="Q14">
-        <v>0.0002695280120891297</v>
+        <v>0.0002695280121944544</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9997311420116</v>
+        <v>-179.9997311420115</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -23046,22 +23046,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350546492868046</v>
+        <v>0.6350546492868037</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350546960705353</v>
+        <v>0.6350546960705341</v>
       </c>
       <c r="Q15">
-        <v>0.000269675035394102</v>
+        <v>0.0002696750355651169</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9997311314499</v>
+        <v>-179.9997311314498</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -23108,16 +23108,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350546525142682</v>
+        <v>0.6350546525142673</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350546902230193</v>
+        <v>0.6350546902230186</v>
       </c>
       <c r="Q16">
-        <v>0.0002692339652199894</v>
+        <v>0.0002692339652917405</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -23170,22 +23170,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350546525142682</v>
+        <v>0.6350546525142674</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350546902230193</v>
+        <v>0.6350546902230186</v>
       </c>
       <c r="Q17">
-        <v>0.0002692339651917118</v>
+        <v>0.0002692339652869846</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.9997311631349</v>
+        <v>-179.9997311631348</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -23232,22 +23232,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.635054647673075</v>
+        <v>0.635054647673073</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.635054698994293</v>
+        <v>0.6350546989942919</v>
       </c>
       <c r="Q18">
-        <v>0.0002698955706637317</v>
+        <v>0.0002698955707906081</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9997311156075</v>
+        <v>-179.9997311156074</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -23294,22 +23294,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350546455214333</v>
+        <v>0.6350546455214313</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350547028926368</v>
+        <v>0.6350547028926358</v>
       </c>
       <c r="Q19">
-        <v>0.0002701896175388018</v>
+        <v>0.000270189617659412</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9997310944842</v>
+        <v>-179.9997310944841</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -23356,16 +23356,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350546439077021</v>
+        <v>0.6350546439076998</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350547058163949</v>
+        <v>0.6350547058163934</v>
       </c>
       <c r="Q20">
-        <v>0.0002704101526939147</v>
+        <v>0.0002704101528170796</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350546433697914</v>
+        <v>0.6350546433697891</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350547067909806</v>
+        <v>0.6350547067909794</v>
       </c>
       <c r="Q21">
-        <v>0.0002704836643923487</v>
+        <v>0.0002704836645212967</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9997310733609</v>
+        <v>-179.9997310733608</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>5.123517109782726</v>
       </c>
       <c r="H2">
-        <v>0.01094228568963189</v>
+        <v>0.01094228568963188</v>
       </c>
       <c r="I2">
         <v>0.1094383946554753</v>
@@ -23877,7 +23877,7 @@
         <v>29.52465642997524</v>
       </c>
       <c r="R7">
-        <v>-90.55768081989925</v>
+        <v>-90.55768081989926</v>
       </c>
       <c r="S7">
         <v>149.9221292610964</v>
@@ -23936,7 +23936,7 @@
         <v>1.090352558547084</v>
       </c>
       <c r="Q8">
-        <v>29.52465643055205</v>
+        <v>29.52465643055206</v>
       </c>
       <c r="R8">
         <v>-90.55768081856269</v>
@@ -24116,13 +24116,13 @@
         <v>1.096496872136747</v>
       </c>
       <c r="O11">
-        <v>1.086862152100594</v>
+        <v>1.086862152100595</v>
       </c>
       <c r="P11">
         <v>1.090352558569965</v>
       </c>
       <c r="Q11">
-        <v>29.52465643343613</v>
+        <v>29.52465643343614</v>
       </c>
       <c r="R11">
         <v>-90.55768081187988</v>
@@ -25006,7 +25006,7 @@
         <v>29.52465642631506</v>
       </c>
       <c r="R4">
-        <v>-90.55768082819935</v>
+        <v>-90.55768082819934</v>
       </c>
       <c r="S4">
         <v>149.9221292567302</v>
@@ -25319,7 +25319,7 @@
         <v>-90.55768081483373</v>
       </c>
       <c r="S9">
-        <v>149.9221292642402</v>
+        <v>149.9221292642401</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -25437,7 +25437,7 @@
         <v>1.090352558569357</v>
       </c>
       <c r="Q11">
-        <v>29.52465643381365</v>
+        <v>29.52465643381366</v>
       </c>
       <c r="R11">
         <v>-90.55768081082404</v>
@@ -25561,7 +25561,7 @@
         <v>1.090352558436645</v>
       </c>
       <c r="Q13">
-        <v>29.524656417086</v>
+        <v>29.52465641708601</v>
       </c>
       <c r="R13">
         <v>-90.55768084958433</v>
@@ -25623,7 +25623,7 @@
         <v>1.090352558450374</v>
       </c>
       <c r="Q14">
-        <v>29.52465641881646</v>
+        <v>29.52465641881645</v>
       </c>
       <c r="R14">
         <v>-90.55768084557464</v>
@@ -25933,7 +25933,7 @@
         <v>1.09035255849156</v>
       </c>
       <c r="Q19">
-        <v>29.52465642400779</v>
+        <v>29.5246564240078</v>
       </c>
       <c r="R19">
         <v>-90.55768083354559</v>
@@ -26060,7 +26060,7 @@
         <v>29.52465642631506</v>
       </c>
       <c r="R21">
-        <v>-90.55768082819935</v>
+        <v>-90.55768082819934</v>
       </c>
       <c r="S21">
         <v>149.9221292567302</v>
@@ -26152,7 +26152,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>46.18907668571199</v>
+        <v>46.18907668571197</v>
       </c>
       <c r="D2">
         <v>46.18950210354603</v>
@@ -26170,7 +26170,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -26179,13 +26179,13 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
-        <v>0.5773186145024687</v>
+        <v>0.5773186145024688</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -26194,7 +26194,7 @@
         <v>0.5773186144816088</v>
       </c>
       <c r="Q2">
-        <v>0.0003047078022327568</v>
+        <v>0.0003047078022450729</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -26203,7 +26203,7 @@
         <v>-179.9996952927372</v>
       </c>
       <c r="T2">
-        <v>46.19308790992186</v>
+        <v>46.19308790992185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -26247,22 +26247,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773185996363969</v>
+        <v>0.5773185996363972</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773186308564657</v>
+        <v>0.5773186308564653</v>
       </c>
       <c r="Q3">
-        <v>0.0003057325834278347</v>
+        <v>0.0003057325833405548</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9996945272498</v>
+        <v>-179.9996945272499</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -26309,16 +26309,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773185938148536</v>
+        <v>0.577318593814853</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.577318651159783</v>
+        <v>0.5773186511597818</v>
       </c>
       <c r="Q4">
-        <v>0.0003077256559278645</v>
+        <v>0.0003077256559960621</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -26371,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773185950404427</v>
+        <v>0.5773185950404421</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.577318646885401</v>
+        <v>0.5773186468854</v>
       </c>
       <c r="Q5">
-        <v>0.0003073060618806023</v>
+        <v>0.0003073060617102427</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9996949188263</v>
+        <v>-179.9996949188264</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -26433,22 +26433,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773185932020615</v>
+        <v>0.5773185932020605</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.577318653296975</v>
+        <v>0.5773186532969737</v>
       </c>
       <c r="Q6">
-        <v>0.0003079354532812322</v>
+        <v>0.0003079354530467689</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9996950754569</v>
+        <v>-179.9996950754571</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -26495,22 +26495,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.577318591670077</v>
+        <v>0.5773185916700757</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773186586399531</v>
+        <v>0.5773186586399518</v>
       </c>
       <c r="Q7">
-        <v>0.0003084599461170235</v>
+        <v>0.0003084599458467446</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9996952059824</v>
+        <v>-179.9996952059826</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -26557,22 +26557,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773185913636801</v>
+        <v>0.5773185913636788</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773186597085487</v>
+        <v>0.5773186597085476</v>
       </c>
       <c r="Q8">
-        <v>0.0003085648446527969</v>
+        <v>0.0003085648443904646</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9996952320875</v>
+        <v>-179.9996952320877</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -26619,22 +26619,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773185907508862</v>
+        <v>0.577318590750885</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773186618457402</v>
+        <v>0.577318661845739</v>
       </c>
       <c r="Q9">
-        <v>0.0003087746418110354</v>
+        <v>0.0003087746415407562</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9996952842977</v>
+        <v>-179.999695284298</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -26681,22 +26681,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773185901380925</v>
+        <v>0.5773185901380911</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773186639829316</v>
+        <v>0.5773186639829304</v>
       </c>
       <c r="Q10">
-        <v>0.0003089844389392091</v>
+        <v>0.0003089844386752912</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.999695336508</v>
+        <v>-179.9996953365082</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -26743,22 +26743,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773185898316956</v>
+        <v>0.5773185898316943</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773186650515274</v>
+        <v>0.5773186650515261</v>
       </c>
       <c r="Q11">
-        <v>0.0003090893375019144</v>
+        <v>0.000309089337231635</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.9996953626131</v>
+        <v>-179.9996953626133</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -26811,16 +26811,16 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.577318634062253</v>
+        <v>0.5773186340622525</v>
       </c>
       <c r="Q12">
-        <v>0.0003060472791147639</v>
+        <v>0.0003060472790038986</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9996946055651</v>
+        <v>-179.9996946055652</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -26867,22 +26867,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773185987172058</v>
+        <v>0.5773185987172063</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773186340622528</v>
+        <v>0.5773186340622524</v>
       </c>
       <c r="Q13">
-        <v>0.0003060472790613747</v>
+        <v>0.0003060472789736849</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.9996946055651</v>
+        <v>-179.9996946055652</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773185977980146</v>
+        <v>0.5773185977980145</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773186372680397</v>
+        <v>0.5773186372680391</v>
       </c>
       <c r="Q14">
-        <v>0.0003063619747672328</v>
+        <v>0.0003063619746990891</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9996946838804</v>
+        <v>-179.9996946838805</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -26991,22 +26991,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773185971852213</v>
+        <v>0.5773185971852209</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773186394052312</v>
+        <v>0.5773186394052304</v>
       </c>
       <c r="Q15">
-        <v>0.000306571771923021</v>
+        <v>0.0003065717718009383</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9996947360906</v>
+        <v>-179.9996947360907</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -27059,16 +27059,16 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773186329936574</v>
+        <v>0.5773186329936568</v>
       </c>
       <c r="Q16">
-        <v>0.0003059423805532767</v>
+        <v>0.0003059423804551344</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.99969457946</v>
+        <v>-179.9996945794601</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -27115,16 +27115,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773185990236029</v>
+        <v>0.5773185990236033</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773186329936572</v>
+        <v>0.5773186329936567</v>
       </c>
       <c r="Q17">
-        <v>0.000305942380525701</v>
+        <v>0.0003059423804400691</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -27177,16 +27177,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773185962660295</v>
+        <v>0.5773185962660292</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773186426110177</v>
+        <v>0.5773186426110172</v>
       </c>
       <c r="Q18">
-        <v>0.0003068864675365326</v>
+        <v>0.0003068864675148441</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -27239,16 +27239,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773185950404416</v>
+        <v>0.577318595040441</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773186468854002</v>
+        <v>0.5773186468853995</v>
       </c>
       <c r="Q19">
-        <v>0.0003073060617433438</v>
+        <v>0.0003073060617579926</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -27301,16 +27301,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773185941212506</v>
+        <v>0.57731859412125</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773186500911872</v>
+        <v>0.5773186500911861</v>
       </c>
       <c r="Q20">
-        <v>0.0003076207573873529</v>
+        <v>0.0003076207574321965</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -27363,16 +27363,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773185938148536</v>
+        <v>0.5773185938148531</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.577318651159783</v>
+        <v>0.5773186511597819</v>
       </c>
       <c r="Q21">
-        <v>0.0003077256559278645</v>
+        <v>0.0003077256559790694</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -27963,7 +27963,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>46.18907668571199</v>
+        <v>46.18907668571197</v>
       </c>
       <c r="D2">
         <v>46.18950210354603</v>
@@ -27981,7 +27981,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -27990,13 +27990,13 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
-        <v>0.5773186145024687</v>
+        <v>0.5773186145024688</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -28005,7 +28005,7 @@
         <v>0.5773186144816088</v>
       </c>
       <c r="Q2">
-        <v>0.0003047078022327568</v>
+        <v>0.0003047078022450729</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>-179.9996952927372</v>
       </c>
       <c r="T2">
-        <v>46.19308790992186</v>
+        <v>46.19308790992185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773185996363969</v>
+        <v>0.5773185996363972</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773186308564657</v>
+        <v>0.5773186308564653</v>
       </c>
       <c r="Q3">
-        <v>0.0003057325834278347</v>
+        <v>0.0003057325833405548</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9996945272498</v>
+        <v>-179.9996945272499</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -28120,16 +28120,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773185938148536</v>
+        <v>0.577318593814853</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.577318651159783</v>
+        <v>0.5773186511597818</v>
       </c>
       <c r="Q4">
-        <v>0.0003077256559278645</v>
+        <v>0.0003077256559960621</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -28182,22 +28182,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773185950404427</v>
+        <v>0.5773185950404421</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.577318646885401</v>
+        <v>0.5773186468854</v>
       </c>
       <c r="Q5">
-        <v>0.0003073060618806023</v>
+        <v>0.0003073060617102427</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9996949188263</v>
+        <v>-179.9996949188264</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -28244,22 +28244,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773185932020615</v>
+        <v>0.5773185932020605</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.577318653296975</v>
+        <v>0.5773186532969737</v>
       </c>
       <c r="Q6">
-        <v>0.0003079354532812322</v>
+        <v>0.0003079354530467689</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9996950754569</v>
+        <v>-179.9996950754571</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -28306,22 +28306,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.577318591670077</v>
+        <v>0.5773185916700757</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773186586399531</v>
+        <v>0.5773186586399518</v>
       </c>
       <c r="Q7">
-        <v>0.0003084599461170235</v>
+        <v>0.0003084599458467446</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9996952059824</v>
+        <v>-179.9996952059826</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -28368,22 +28368,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773185913636801</v>
+        <v>0.5773185913636788</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773186597085487</v>
+        <v>0.5773186597085476</v>
       </c>
       <c r="Q8">
-        <v>0.0003085648446527969</v>
+        <v>0.0003085648443904646</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9996952320875</v>
+        <v>-179.9996952320877</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -28430,22 +28430,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773185907508862</v>
+        <v>0.577318590750885</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773186618457402</v>
+        <v>0.577318661845739</v>
       </c>
       <c r="Q9">
-        <v>0.0003087746418110354</v>
+        <v>0.0003087746415407562</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9996952842977</v>
+        <v>-179.999695284298</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -28492,22 +28492,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773185901380925</v>
+        <v>0.5773185901380911</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773186639829316</v>
+        <v>0.5773186639829304</v>
       </c>
       <c r="Q10">
-        <v>0.0003089844389392091</v>
+        <v>0.0003089844386752912</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.999695336508</v>
+        <v>-179.9996953365082</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -28554,22 +28554,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773185898316956</v>
+        <v>0.5773185898316943</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773186650515274</v>
+        <v>0.5773186650515261</v>
       </c>
       <c r="Q11">
-        <v>0.0003090893375019144</v>
+        <v>0.000309089337231635</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.9996953626131</v>
+        <v>-179.9996953626133</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -28622,16 +28622,16 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.577318634062253</v>
+        <v>0.5773186340622525</v>
       </c>
       <c r="Q12">
-        <v>0.0003060472791147639</v>
+        <v>0.0003060472790038986</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9996946055651</v>
+        <v>-179.9996946055652</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -28678,22 +28678,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773185987172058</v>
+        <v>0.5773185987172063</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773186340622528</v>
+        <v>0.5773186340622524</v>
       </c>
       <c r="Q13">
-        <v>0.0003060472790613747</v>
+        <v>0.0003060472789736849</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.9996946055651</v>
+        <v>-179.9996946055652</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -28740,22 +28740,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773185977980146</v>
+        <v>0.5773185977980145</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773186372680397</v>
+        <v>0.5773186372680391</v>
       </c>
       <c r="Q14">
-        <v>0.0003063619747672328</v>
+        <v>0.0003063619746990891</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9996946838804</v>
+        <v>-179.9996946838805</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -28802,22 +28802,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773185971852213</v>
+        <v>0.5773185971852209</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773186394052312</v>
+        <v>0.5773186394052304</v>
       </c>
       <c r="Q15">
-        <v>0.000306571771923021</v>
+        <v>0.0003065717718009383</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9996947360906</v>
+        <v>-179.9996947360907</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -28870,16 +28870,16 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773186329936574</v>
+        <v>0.5773186329936568</v>
       </c>
       <c r="Q16">
-        <v>0.0003059423805532767</v>
+        <v>0.0003059423804551344</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.99969457946</v>
+        <v>-179.9996945794601</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -28926,16 +28926,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773185990236029</v>
+        <v>0.5773185990236033</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773186329936572</v>
+        <v>0.5773186329936567</v>
       </c>
       <c r="Q17">
-        <v>0.000305942380525701</v>
+        <v>0.0003059423804400691</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -28988,16 +28988,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773185962660295</v>
+        <v>0.5773185962660292</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773186426110177</v>
+        <v>0.5773186426110172</v>
       </c>
       <c r="Q18">
-        <v>0.0003068864675365326</v>
+        <v>0.0003068864675148441</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -29050,16 +29050,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773185950404416</v>
+        <v>0.577318595040441</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773186468854002</v>
+        <v>0.5773186468853995</v>
       </c>
       <c r="Q19">
-        <v>0.0003073060617433438</v>
+        <v>0.0003073060617579926</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -29112,16 +29112,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773185941212506</v>
+        <v>0.57731859412125</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773186500911872</v>
+        <v>0.5773186500911861</v>
       </c>
       <c r="Q20">
-        <v>0.0003076207573873529</v>
+        <v>0.0003076207574321965</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -29174,16 +29174,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773185938148536</v>
+        <v>0.5773185938148531</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.577318651159783</v>
+        <v>0.5773186511597819</v>
       </c>
       <c r="Q21">
-        <v>0.0003077256559278645</v>
+        <v>0.0003077256559790694</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -29296,7 +29296,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -29305,10 +29305,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>0.9963798800464844</v>
@@ -29373,7 +29373,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.996379879761804</v>
+        <v>0.9963798797618041</v>
       </c>
       <c r="O3">
         <v>0.9864427565220329</v>
@@ -29441,7 +29441,7 @@
         <v>0.9864427565720366</v>
       </c>
       <c r="P4">
-        <v>0.9900480169282441</v>
+        <v>0.990048016928244</v>
       </c>
       <c r="Q4">
         <v>29.46075694569368</v>
@@ -29497,7 +29497,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9963798796384948</v>
+        <v>0.9963798796384947</v>
       </c>
       <c r="O5">
         <v>0.9864427565615096</v>
@@ -29565,10 +29565,10 @@
         <v>0.9864427565773003</v>
       </c>
       <c r="P6">
-        <v>0.990048016950305</v>
+        <v>0.9900480169503051</v>
       </c>
       <c r="Q6">
-        <v>29.4607569476879</v>
+        <v>29.46075694768789</v>
       </c>
       <c r="R6">
         <v>-90.63269604646727</v>
@@ -29621,13 +29621,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9963798795480683</v>
+        <v>0.9963798795480679</v>
       </c>
       <c r="O7">
-        <v>0.9864427565904591</v>
+        <v>0.986442756590459</v>
       </c>
       <c r="P7">
-        <v>0.9900480170054576</v>
+        <v>0.9900480170054574</v>
       </c>
       <c r="Q7">
         <v>29.46075695267345</v>
@@ -29683,7 +29683,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9963798795398476</v>
+        <v>0.9963798795398473</v>
       </c>
       <c r="O8">
         <v>0.9864427565930908</v>
@@ -29807,7 +29807,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.996379879506965</v>
+        <v>0.9963798795069649</v>
       </c>
       <c r="O10">
         <v>0.9864427566036181</v>
@@ -29872,16 +29872,16 @@
         <v>0.9963798794987444</v>
       </c>
       <c r="O11">
-        <v>0.9864427566062498</v>
+        <v>0.9864427566062497</v>
       </c>
       <c r="P11">
-        <v>0.9900480170716406</v>
+        <v>0.9900480170716407</v>
       </c>
       <c r="Q11">
         <v>29.46075695865611</v>
       </c>
       <c r="R11">
-        <v>-90.63269602529786</v>
+        <v>-90.63269602529788</v>
       </c>
       <c r="S11">
         <v>149.9123035584836</v>
@@ -30123,7 +30123,7 @@
         <v>0.9864427565430871</v>
       </c>
       <c r="P15">
-        <v>0.9900480168069085</v>
+        <v>0.9900480168069083</v>
       </c>
       <c r="Q15">
         <v>29.46075693472547</v>
@@ -30179,16 +30179,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9963798797453629</v>
+        <v>0.9963798797453628</v>
       </c>
       <c r="O16">
         <v>0.9864427565272964</v>
       </c>
       <c r="P16">
-        <v>0.9900480167407255</v>
+        <v>0.9900480167407254</v>
       </c>
       <c r="Q16">
-        <v>29.46075692874281</v>
+        <v>29.4607569287428</v>
       </c>
       <c r="R16">
         <v>-90.63269608303263</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9963798797453629</v>
+        <v>0.9963798797453628</v>
       </c>
       <c r="O17">
         <v>0.9864427565272964</v>
@@ -30250,7 +30250,7 @@
         <v>0.9900480167407254</v>
       </c>
       <c r="Q17">
-        <v>29.46075692874281</v>
+        <v>29.4607569287428</v>
       </c>
       <c r="R17">
         <v>-90.63269608303263</v>
@@ -30315,7 +30315,7 @@
         <v>29.4607569377168</v>
       </c>
       <c r="R18">
-        <v>-90.6326960657122</v>
+        <v>-90.63269606571221</v>
       </c>
       <c r="S18">
         <v>149.9123035393999</v>
@@ -30368,7 +30368,7 @@
         <v>0.9963798796384947</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P19">
         <v>0.990048016884122</v>
@@ -30439,7 +30439,7 @@
         <v>29.46075694469656</v>
       </c>
       <c r="R20">
-        <v>-90.63269605224076</v>
+        <v>-90.63269605224075</v>
       </c>
       <c r="S20">
         <v>149.9123035457611</v>
@@ -30495,7 +30495,7 @@
         <v>0.9864427565720366</v>
       </c>
       <c r="P21">
-        <v>0.9900480169282441</v>
+        <v>0.990048016928244</v>
       </c>
       <c r="Q21">
         <v>29.46075694569368</v>
@@ -30611,7 +30611,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -30620,10 +30620,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>0.9963798800464844</v>
@@ -30688,7 +30688,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.996379879761804</v>
+        <v>0.9963798797618041</v>
       </c>
       <c r="O3">
         <v>0.9864427565220329</v>
@@ -30756,7 +30756,7 @@
         <v>0.9864427565720366</v>
       </c>
       <c r="P4">
-        <v>0.9900480169282441</v>
+        <v>0.990048016928244</v>
       </c>
       <c r="Q4">
         <v>29.46075694569368</v>
@@ -30812,7 +30812,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9963798796384948</v>
+        <v>0.9963798796384947</v>
       </c>
       <c r="O5">
         <v>0.9864427565615096</v>
@@ -30880,10 +30880,10 @@
         <v>0.9864427565773003</v>
       </c>
       <c r="P6">
-        <v>0.990048016950305</v>
+        <v>0.9900480169503051</v>
       </c>
       <c r="Q6">
-        <v>29.4607569476879</v>
+        <v>29.46075694768789</v>
       </c>
       <c r="R6">
         <v>-90.63269604646727</v>
@@ -30936,13 +30936,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9963798795480683</v>
+        <v>0.9963798795480679</v>
       </c>
       <c r="O7">
-        <v>0.9864427565904591</v>
+        <v>0.986442756590459</v>
       </c>
       <c r="P7">
-        <v>0.9900480170054576</v>
+        <v>0.9900480170054574</v>
       </c>
       <c r="Q7">
         <v>29.46075695267345</v>
@@ -30998,7 +30998,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9963798795398476</v>
+        <v>0.9963798795398473</v>
       </c>
       <c r="O8">
         <v>0.9864427565930908</v>
@@ -31122,7 +31122,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.996379879506965</v>
+        <v>0.9963798795069649</v>
       </c>
       <c r="O10">
         <v>0.9864427566036181</v>
@@ -31187,16 +31187,16 @@
         <v>0.9963798794987444</v>
       </c>
       <c r="O11">
-        <v>0.9864427566062498</v>
+        <v>0.9864427566062497</v>
       </c>
       <c r="P11">
-        <v>0.9900480170716406</v>
+        <v>0.9900480170716407</v>
       </c>
       <c r="Q11">
         <v>29.46075695865611</v>
       </c>
       <c r="R11">
-        <v>-90.63269602529786</v>
+        <v>-90.63269602529788</v>
       </c>
       <c r="S11">
         <v>149.9123035584836</v>
@@ -31438,7 +31438,7 @@
         <v>0.9864427565430871</v>
       </c>
       <c r="P15">
-        <v>0.9900480168069085</v>
+        <v>0.9900480168069083</v>
       </c>
       <c r="Q15">
         <v>29.46075693472547</v>
@@ -31494,16 +31494,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9963798797453629</v>
+        <v>0.9963798797453628</v>
       </c>
       <c r="O16">
         <v>0.9864427565272964</v>
       </c>
       <c r="P16">
-        <v>0.9900480167407255</v>
+        <v>0.9900480167407254</v>
       </c>
       <c r="Q16">
-        <v>29.46075692874281</v>
+        <v>29.4607569287428</v>
       </c>
       <c r="R16">
         <v>-90.63269608303263</v>
@@ -31556,7 +31556,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9963798797453629</v>
+        <v>0.9963798797453628</v>
       </c>
       <c r="O17">
         <v>0.9864427565272964</v>
@@ -31565,7 +31565,7 @@
         <v>0.9900480167407254</v>
       </c>
       <c r="Q17">
-        <v>29.46075692874281</v>
+        <v>29.4607569287428</v>
       </c>
       <c r="R17">
         <v>-90.63269608303263</v>
@@ -31630,7 +31630,7 @@
         <v>29.4607569377168</v>
       </c>
       <c r="R18">
-        <v>-90.6326960657122</v>
+        <v>-90.63269606571221</v>
       </c>
       <c r="S18">
         <v>149.9123035393999</v>
@@ -31683,7 +31683,7 @@
         <v>0.9963798796384947</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P19">
         <v>0.990048016884122</v>
@@ -31754,7 +31754,7 @@
         <v>29.46075694469656</v>
       </c>
       <c r="R20">
-        <v>-90.63269605224076</v>
+        <v>-90.63269605224075</v>
       </c>
       <c r="S20">
         <v>149.9123035457611</v>
@@ -31810,7 +31810,7 @@
         <v>0.9864427565720366</v>
       </c>
       <c r="P21">
-        <v>0.9900480169282441</v>
+        <v>0.990048016928244</v>
       </c>
       <c r="Q21">
         <v>29.46075694569368</v>
@@ -34385,10 +34385,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50.0000028350735</v>
+        <v>50.00000283507351</v>
       </c>
       <c r="D2">
-        <v>50.0000028350735</v>
+        <v>50.00000283507351</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -34400,7 +34400,7 @@
         <v>288.6751509631174</v>
       </c>
       <c r="H2">
-        <v>0.01094228568963189</v>
+        <v>0.01094228568963188</v>
       </c>
       <c r="I2">
         <v>0.1094383946554753</v>
@@ -34424,10 +34424,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833882</v>
+        <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-8.692344207065613E-11</v>
+        <v>-8.691563106292532E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -34477,16 +34477,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279482343816</v>
+        <v>0.9526279482343819</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279813293725</v>
+        <v>0.9526279813293728</v>
       </c>
       <c r="Q3">
-        <v>8.313209709952376E-08</v>
+        <v>8.313211456124172E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -34536,16 +34536,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279338656304</v>
+        <v>0.9526279338656315</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279956981213</v>
+        <v>0.9526279956981215</v>
       </c>
       <c r="Q4">
-        <v>5.152361210745467E-07</v>
+        <v>5.152361127718362E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -34595,22 +34595,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279368906287</v>
+        <v>0.9526279368906296</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279926731219</v>
+        <v>0.9526279926731215</v>
       </c>
       <c r="Q5">
-        <v>4.242666813105824E-07</v>
+        <v>4.242667643464667E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999995757242</v>
+        <v>179.9999995757243</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -34654,22 +34654,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279323531278</v>
+        <v>0.9526279323531289</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279972106217</v>
+        <v>0.952627997210621</v>
       </c>
       <c r="Q6">
-        <v>5.607205153172291E-07</v>
+        <v>5.607206317101894E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999994392703</v>
+        <v>179.9999994392704</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9526279285718769</v>
+        <v>0.9526279285718781</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280009918715</v>
+        <v>0.9526280009918705</v>
       </c>
       <c r="Q7">
-        <v>6.744320546427133E-07</v>
+        <v>6.74432188391137E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279278156268</v>
+        <v>0.9526279278156279</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280017481213</v>
+        <v>0.9526280017481205</v>
       </c>
       <c r="Q8">
-        <v>6.971743643988781E-07</v>
+        <v>6.971744897939804E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -34831,22 +34831,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279263031264</v>
+        <v>0.9526279263031278</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280032606214</v>
+        <v>0.9526280032606206</v>
       </c>
       <c r="Q9">
-        <v>7.426589815076927E-07</v>
+        <v>7.426591114008249E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999992573318</v>
+        <v>179.9999992573319</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -34890,22 +34890,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279247906262</v>
+        <v>0.9526279247906272</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280047731213</v>
+        <v>0.9526280047731205</v>
       </c>
       <c r="Q10">
-        <v>7.88143595449788E-07</v>
+        <v>7.881437253428756E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999992118472</v>
+        <v>179.9999992118473</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -34949,16 +34949,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279240343761</v>
+        <v>0.952627924034377</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280055293714</v>
+        <v>0.9526280055293705</v>
       </c>
       <c r="Q11">
-        <v>8.108858999299019E-07</v>
+        <v>8.108860336781917E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -35008,16 +35008,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279459656308</v>
+        <v>0.9526279459656315</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279835981226</v>
+        <v>0.9526279835981228</v>
       </c>
       <c r="Q12">
-        <v>1.513590059683538E-07</v>
+        <v>1.513590192769823E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -35067,16 +35067,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9526279459656309</v>
+        <v>0.9526279459656315</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279835981223</v>
+        <v>0.9526279835981227</v>
       </c>
       <c r="Q13">
-        <v>1.51358983260532E-07</v>
+        <v>1.513590148627906E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -35126,16 +35126,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.952627943696881</v>
+        <v>0.9526279436968818</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279858668719</v>
+        <v>0.9526279858668723</v>
       </c>
       <c r="Q14">
-        <v>2.195859937277347E-07</v>
+        <v>2.195859949380777E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -35185,7 +35185,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.95262794218438</v>
+        <v>0.9526279421843807</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -35194,13 +35194,13 @@
         <v>0.952627987379372</v>
       </c>
       <c r="Q15">
-        <v>2.650705414263783E-07</v>
+        <v>2.650705921220669E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999997349204</v>
+        <v>179.9999997349205</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -35244,16 +35244,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.952627946721881</v>
+        <v>0.9526279467218817</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279828418726</v>
+        <v>0.9526279828418729</v>
       </c>
       <c r="Q16">
-        <v>1.28616698680162E-07</v>
+        <v>1.286167081335881E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -35303,16 +35303,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9526279467218811</v>
+        <v>0.9526279467218817</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279828418721</v>
+        <v>0.9526279828418727</v>
       </c>
       <c r="Q17">
-        <v>1.286166967112127E-07</v>
+        <v>1.286167139789373E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -35362,22 +35362,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279399156308</v>
+        <v>0.9526279399156317</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279896481216</v>
+        <v>0.9526279896481219</v>
       </c>
       <c r="Q18">
-        <v>3.332975885122843E-07</v>
+        <v>3.33297570941066E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999996666934</v>
+        <v>179.9999996666935</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -35421,16 +35421,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279368906307</v>
+        <v>0.9526279368906317</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279926731215</v>
+        <v>0.9526279926731217</v>
       </c>
       <c r="Q19">
-        <v>4.242668641753503E-07</v>
+        <v>4.24266841776564E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -35480,22 +35480,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279346218806</v>
+        <v>0.9526279346218817</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279949418713</v>
+        <v>0.9526279949418716</v>
       </c>
       <c r="Q20">
-        <v>4.924938149791675E-07</v>
+        <v>4.924938048869542E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.9999995074972</v>
+        <v>179.9999995074973</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -35539,16 +35539,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279338656304</v>
+        <v>0.9526279338656315</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279956981213</v>
+        <v>0.9526279956981215</v>
       </c>
       <c r="Q21">
-        <v>5.152361287849824E-07</v>
+        <v>5.152361109823177E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
